--- a/playlist.xlsx
+++ b/playlist.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D303"/>
+  <dimension ref="A1:D780"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3218,10 +3218,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="str">
+        <v>3:23</v>
+      </c>
+      <c r="C202" t="str">
         <v>Jim Yosef - Speed [NCS Release]</v>
       </c>
-      <c r="C202" t="str">
-        <v>•</v>
+      <c r="D202" t="str">
+        <v>7.4M views • 6 years ago</v>
       </c>
     </row>
     <row r="203">
@@ -3229,10 +3232,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="str">
+        <v>2:40</v>
+      </c>
+      <c r="C203" t="str">
         <v>NAIMA - Let Me See You [NCS Release]</v>
       </c>
-      <c r="C203" t="str">
-        <v>•</v>
+      <c r="D203" t="str">
+        <v>6.7M views • 7 years ago</v>
       </c>
     </row>
     <row r="204">
@@ -3240,10 +3246,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="str">
+        <v>3:20</v>
+      </c>
+      <c r="C204" t="str">
         <v>Killercats - Kaibu [NCS Release]</v>
       </c>
-      <c r="C204" t="str">
-        <v>•</v>
+      <c r="D204" t="str">
+        <v>6.6M views • 6 years ago</v>
       </c>
     </row>
     <row r="205">
@@ -3251,10 +3260,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="str">
+        <v>3:24</v>
+      </c>
+      <c r="C205" t="str">
         <v>Omar Varela, Xavi &amp; Gi - Stronger (feat. Miss Lina) [NCS Release]</v>
       </c>
-      <c r="C205" t="str">
-        <v>•</v>
+      <c r="D205" t="str">
+        <v>6.7M views • 6 years ago</v>
       </c>
     </row>
     <row r="206">
@@ -3262,10 +3274,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="str">
+        <v>4:30</v>
+      </c>
+      <c r="C206" t="str">
         <v>Exit Friendzone ft. Eden - Iris [NCS Release]</v>
       </c>
-      <c r="C206" t="str">
-        <v>•</v>
+      <c r="D206" t="str">
+        <v>6.6M views • 8 years ago</v>
       </c>
     </row>
     <row r="207">
@@ -3273,10 +3288,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="str">
+        <v>3:01</v>
+      </c>
+      <c r="C207" t="str">
         <v>Unknown Brain - Perseus (feat. Chris Linton) [NCS Release]</v>
       </c>
-      <c r="C207" t="str">
-        <v>•</v>
+      <c r="D207" t="str">
+        <v>6.6M views • 5 years ago</v>
       </c>
     </row>
     <row r="208">
@@ -3284,10 +3302,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="str">
+        <v>4:03</v>
+      </c>
+      <c r="C208" t="str">
         <v>Sub.Sound - Feel The Buzz [NCS Release]</v>
       </c>
-      <c r="C208" t="str">
-        <v>•</v>
+      <c r="D208" t="str">
+        <v>6.4M views • 9 years ago</v>
       </c>
     </row>
     <row r="209">
@@ -3295,10 +3316,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="str">
+        <v>4:14</v>
+      </c>
+      <c r="C209" t="str">
         <v>Killabyte - Wicked Ways (feat. Danyka Nadeau) [NCS Release]</v>
       </c>
-      <c r="C209" t="str">
-        <v>•</v>
+      <c r="D209" t="str">
+        <v>6.6M views • 5 years ago</v>
       </c>
     </row>
     <row r="210">
@@ -3306,10 +3330,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="str">
+        <v>4:50</v>
+      </c>
+      <c r="C210" t="str">
         <v>David Bulla - High Life [NCS Release]</v>
       </c>
-      <c r="C210" t="str">
-        <v>•</v>
+      <c r="D210" t="str">
+        <v>6.4M views • 8 years ago</v>
       </c>
     </row>
     <row r="211">
@@ -3317,10 +3344,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="str">
+        <v>4:18</v>
+      </c>
+      <c r="C211" t="str">
         <v>Phantom Sage - Crystal Clouds [NCS Release]</v>
       </c>
-      <c r="C211" t="str">
-        <v>•</v>
+      <c r="D211" t="str">
+        <v>6.4M views • 7 years ago</v>
       </c>
     </row>
     <row r="212">
@@ -3328,10 +3358,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="str">
+        <v>3:14</v>
+      </c>
+      <c r="C212" t="str">
         <v>Speo - Make A Stand (feat. Budobo) [NCS Release]</v>
       </c>
-      <c r="C212" t="str">
-        <v>•</v>
+      <c r="D212" t="str">
+        <v>6.2M views • 7 years ago</v>
       </c>
     </row>
     <row r="213">
@@ -3339,10 +3372,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="str">
+        <v>3:46</v>
+      </c>
+      <c r="C213" t="str">
         <v>Culture Code feat. Karra - Make Me Move (James Roche Remix) [NCS Release]</v>
       </c>
-      <c r="C213" t="str">
-        <v>•</v>
+      <c r="D213" t="str">
+        <v>6.5M views • 5 years ago</v>
       </c>
     </row>
     <row r="214">
@@ -3350,10 +3386,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="str">
+        <v>3:51</v>
+      </c>
+      <c r="C214" t="str">
         <v>Different Heaven - Far Away (Phantom Sage Remix) [NCS Release]</v>
       </c>
-      <c r="C214" t="str">
-        <v>•</v>
+      <c r="D214" t="str">
+        <v>6.3M views • 6 years ago</v>
       </c>
     </row>
     <row r="215">
@@ -3361,10 +3400,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="str">
+        <v>3:03</v>
+      </c>
+      <c r="C215" t="str">
         <v>Jo Cohen &amp; BQ - Glowing At Night [NCS Release]</v>
       </c>
-      <c r="C215" t="str">
-        <v>•</v>
+      <c r="D215" t="str">
+        <v>6.4M views • 6 years ago</v>
       </c>
     </row>
     <row r="216">
@@ -3372,10 +3414,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="str">
+        <v>4:11</v>
+      </c>
+      <c r="C216" t="str">
         <v>Elektronomia - Vitality [NCS Release]</v>
       </c>
-      <c r="C216" t="str">
-        <v>•</v>
+      <c r="D216" t="str">
+        <v>6.6M views • 5 years ago</v>
       </c>
     </row>
     <row r="217">
@@ -3383,10 +3428,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="str">
+        <v>4:09</v>
+      </c>
+      <c r="C217" t="str">
         <v>High Maintenance - Change Your Ways (feat. Charlotte Haining) [NCS Release]</v>
       </c>
-      <c r="C217" t="str">
-        <v>•</v>
+      <c r="D217" t="str">
+        <v>6.2M views • 7 years ago</v>
       </c>
     </row>
     <row r="218">
@@ -3394,10 +3442,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="str">
+        <v>3:37</v>
+      </c>
+      <c r="C218" t="str">
         <v>Kisma - We Are[NCS Release]</v>
       </c>
-      <c r="C218" t="str">
-        <v>•</v>
+      <c r="D218" t="str">
+        <v>6.3M views • 5 years ago</v>
       </c>
     </row>
     <row r="219">
@@ -3405,10 +3456,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="str">
+        <v>4:08</v>
+      </c>
+      <c r="C219" t="str">
         <v>Rival x Cadmium - Seasons (feat. Harley Bird) [NCS Release]</v>
       </c>
-      <c r="C219" t="str">
-        <v>•</v>
+      <c r="D219" t="str">
+        <v>6.4M views • 4 years ago</v>
       </c>
     </row>
     <row r="220">
@@ -3416,10 +3470,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="str">
+        <v>3:27</v>
+      </c>
+      <c r="C220" t="str">
         <v>Fytch - Blinded (feat. Kosta &amp; Theo Hoarau) [NCS Release]</v>
       </c>
-      <c r="C220" t="str">
-        <v>•</v>
+      <c r="D220" t="str">
+        <v>5.9M views • 7 years ago</v>
       </c>
     </row>
     <row r="221">
@@ -3427,10 +3484,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="str">
+        <v>4:52</v>
+      </c>
+      <c r="C221" t="str">
         <v>OLWIK - Taking Over (feat. Alexa Lusader) [NCS Release]</v>
       </c>
-      <c r="C221" t="str">
-        <v>•</v>
+      <c r="D221" t="str">
+        <v>6.1M views • 8 years ago</v>
       </c>
     </row>
     <row r="222">
@@ -3438,10 +3498,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="str">
+        <v>2:53</v>
+      </c>
+      <c r="C222" t="str">
         <v>John Kenza - Wicked [NCS Release]</v>
       </c>
-      <c r="C222" t="str">
-        <v>•</v>
+      <c r="D222" t="str">
+        <v>6.1M views • 5 years ago</v>
       </c>
     </row>
     <row r="223">
@@ -3449,10 +3512,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="str">
+        <v>5:02</v>
+      </c>
+      <c r="C223" t="str">
         <v>Matthew Blake feat. Tyler Fiore - Upside Down [NCS Release]</v>
       </c>
-      <c r="C223" t="str">
-        <v>•</v>
+      <c r="D223" t="str">
+        <v>6M views • 8 years ago</v>
       </c>
     </row>
     <row r="224">
@@ -3460,10 +3526,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="str">
+        <v>3:04</v>
+      </c>
+      <c r="C224" t="str">
         <v>ÉWN - Feels [NCS Release]</v>
       </c>
-      <c r="C224" t="str">
-        <v>•</v>
+      <c r="D224" t="str">
+        <v>6.1M views • 6 years ago</v>
       </c>
     </row>
     <row r="225">
@@ -3471,10 +3540,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="str">
+        <v>3:16</v>
+      </c>
+      <c r="C225" t="str">
         <v>NIVIRO - The Floor Is Lava [NCS Release]</v>
       </c>
-      <c r="C225" t="str">
-        <v>•</v>
+      <c r="D225" t="str">
+        <v>5.8M views • 5 years ago</v>
       </c>
     </row>
     <row r="226">
@@ -3482,10 +3554,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="str">
+        <v>3:29</v>
+      </c>
+      <c r="C226" t="str">
         <v>JPB - Get Over You (feat. Valentina Franco) [NCS Release]</v>
       </c>
-      <c r="C226" t="str">
-        <v>•</v>
+      <c r="D226" t="str">
+        <v>6M views • 5 years ago</v>
       </c>
     </row>
     <row r="227">
@@ -3493,10 +3568,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="str">
+        <v>3:57</v>
+      </c>
+      <c r="C227" t="str">
         <v>Kontinuum - Lost (feat. Savoi) [NCS Release]</v>
       </c>
-      <c r="C227" t="str">
-        <v>•</v>
+      <c r="D227" t="str">
+        <v>5.8M views • 7 years ago</v>
       </c>
     </row>
     <row r="228">
@@ -3504,10 +3582,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="str">
+        <v>3:37</v>
+      </c>
+      <c r="C228" t="str">
         <v>Vanze x Balco x Fransis Derelle - All I Need (feat. Brenton Mattheus) [NCS Release]</v>
       </c>
-      <c r="C228" t="str">
-        <v>•</v>
+      <c r="D228" t="str">
+        <v>5.7M views • 7 years ago</v>
       </c>
     </row>
     <row r="229">
@@ -3515,10 +3596,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="str">
+        <v>3:17</v>
+      </c>
+      <c r="C229" t="str">
         <v>Lensko - Titsepoken 2015 [NCS Release]</v>
       </c>
-      <c r="C229" t="str">
-        <v>•</v>
+      <c r="D229" t="str">
+        <v>5.7M views • 7 years ago</v>
       </c>
     </row>
     <row r="230">
@@ -3526,10 +3610,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="str">
+        <v>3:50</v>
+      </c>
+      <c r="C230" t="str">
         <v>NIVIRO - You [NCS Release]</v>
       </c>
-      <c r="C230" t="str">
-        <v>•</v>
+      <c r="D230" t="str">
+        <v>5.8M views • 5 years ago</v>
       </c>
     </row>
     <row r="231">
@@ -3537,10 +3624,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="str">
+        <v>2:49</v>
+      </c>
+      <c r="C231" t="str">
         <v>Mendum - Stay With Me [NCS Release]</v>
       </c>
-      <c r="C231" t="str">
-        <v>•</v>
+      <c r="D231" t="str">
+        <v>5.5M views • 8 years ago</v>
       </c>
     </row>
     <row r="232">
@@ -3548,10 +3638,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="str">
+        <v>3:10</v>
+      </c>
+      <c r="C232" t="str">
         <v>RetroVision - Campfire [NCS Release]</v>
       </c>
-      <c r="C232" t="str">
-        <v>•</v>
+      <c r="D232" t="str">
+        <v>6M views • 5 years ago</v>
       </c>
     </row>
     <row r="233">
@@ -3559,10 +3652,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="str">
+        <v>2:24</v>
+      </c>
+      <c r="C233" t="str">
         <v>Jensation - Donuts [NCS Release]</v>
       </c>
-      <c r="C233" t="str">
-        <v>•</v>
+      <c r="D233" t="str">
+        <v>5.6M views • 6 years ago</v>
       </c>
     </row>
     <row r="234">
@@ -3570,10 +3666,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="str">
+        <v>4:02</v>
+      </c>
+      <c r="C234" t="str">
         <v>ZEST - You. &amp; Me? [NCS Release]</v>
       </c>
-      <c r="C234" t="str">
-        <v>•</v>
+      <c r="D234" t="str">
+        <v>5.5M views • 8 years ago</v>
       </c>
     </row>
     <row r="235">
@@ -3581,10 +3680,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="str">
+        <v>4:49</v>
+      </c>
+      <c r="C235" t="str">
         <v>LarsM - Lovers [NCS Release]</v>
       </c>
-      <c r="C235" t="str">
-        <v>•</v>
+      <c r="D235" t="str">
+        <v>5.5M views • 8 years ago</v>
       </c>
     </row>
     <row r="236">
@@ -3592,10 +3694,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="str">
+        <v>3:25</v>
+      </c>
+      <c r="C236" t="str">
         <v>Prismo - Hold On [NCS Official Video]</v>
       </c>
-      <c r="C236" t="str">
-        <v>•</v>
+      <c r="D236" t="str">
+        <v>5.5M views • 5 years ago</v>
       </c>
     </row>
     <row r="237">
@@ -3603,10 +3708,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="str">
+        <v>4:29</v>
+      </c>
+      <c r="C237" t="str">
         <v>Kasger - Out Here [NCS Release]</v>
       </c>
-      <c r="C237" t="str">
-        <v>•</v>
+      <c r="D237" t="str">
+        <v>5.5M views • 6 years ago</v>
       </c>
     </row>
     <row r="238">
@@ -3614,10 +3722,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="str">
+        <v>2:54</v>
+      </c>
+      <c r="C238" t="str">
         <v>2SCOOPS - Donuts [NCS Release]</v>
       </c>
-      <c r="C238" t="str">
-        <v>•</v>
+      <c r="D238" t="str">
+        <v>5.6M views • 4 years ago</v>
       </c>
     </row>
     <row r="239">
@@ -3625,10 +3736,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="str">
+        <v>2:42</v>
+      </c>
+      <c r="C239" t="str">
         <v>Disfigure - Hollah! [NCS Release]</v>
       </c>
-      <c r="C239" t="str">
-        <v>•</v>
+      <c r="D239" t="str">
+        <v>5.4M views • 8 years ago</v>
       </c>
     </row>
     <row r="240">
@@ -3636,10 +3750,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="str">
+        <v>3:33</v>
+      </c>
+      <c r="C240" t="str">
         <v>Venemy - Rescue Me (feat. Car) [NCS Release]</v>
       </c>
-      <c r="C240" t="str">
-        <v>•</v>
+      <c r="D240" t="str">
+        <v>5.3M views • 7 years ago</v>
       </c>
     </row>
     <row r="241">
@@ -3647,10 +3764,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="str">
+        <v>3:58</v>
+      </c>
+      <c r="C241" t="str">
         <v>Jordan Schor - Cosmic (feat. Nathan Brumley) [NCS Release]</v>
       </c>
-      <c r="C241" t="str">
-        <v>•</v>
+      <c r="D241" t="str">
+        <v>5.4M views • 5 years ago</v>
       </c>
     </row>
     <row r="242">
@@ -3658,10 +3778,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="str">
+        <v>3:51</v>
+      </c>
+      <c r="C242" t="str">
         <v>Last Heroes - Dimensions [NCS Release]</v>
       </c>
-      <c r="C242" t="str">
-        <v>•</v>
+      <c r="D242" t="str">
+        <v>5.4M views • 4 years ago</v>
       </c>
     </row>
     <row r="243">
@@ -3669,10 +3792,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="str">
+        <v>4:30</v>
+      </c>
+      <c r="C243" t="str">
         <v>Disco's Over - Lonely Island PTII (feat. PRXZM) [NCS Release]</v>
       </c>
-      <c r="C243" t="str">
-        <v>•</v>
+      <c r="D243" t="str">
+        <v>5.2M views • 7 years ago</v>
       </c>
     </row>
     <row r="244">
@@ -3680,10 +3806,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="str">
+        <v>2:59</v>
+      </c>
+      <c r="C244" t="str">
         <v>Lennart Schroot &amp; Unknown Brain - Kuyenda (feat. Sru) [NCS Release]</v>
       </c>
-      <c r="C244" t="str">
-        <v>•</v>
+      <c r="D244" t="str">
+        <v>5.5M views • 5 years ago</v>
       </c>
     </row>
     <row r="245">
@@ -3691,10 +3820,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="str">
+        <v>4:04</v>
+      </c>
+      <c r="C245" t="str">
         <v>Venemy &amp; Aznar ft. Doubletake - Reign [NCS Release]</v>
       </c>
-      <c r="C245" t="str">
-        <v>•</v>
+      <c r="D245" t="str">
+        <v>5.3M views • 9 years ago</v>
       </c>
     </row>
     <row r="246">
@@ -3702,10 +3834,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="str">
+        <v>5:05</v>
+      </c>
+      <c r="C246" t="str">
         <v>Phantom Sage - MIKO [NCS Release]</v>
       </c>
-      <c r="C246" t="str">
-        <v>•</v>
+      <c r="D246" t="str">
+        <v>5.3M views • 7 years ago</v>
       </c>
     </row>
     <row r="247">
@@ -3713,10 +3848,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="str">
+        <v>3:22</v>
+      </c>
+      <c r="C247" t="str">
         <v>Anikdote - Which Direction? [NCS Release]</v>
       </c>
-      <c r="C247" t="str">
-        <v>•</v>
+      <c r="D247" t="str">
+        <v>5.2M views • 7 years ago</v>
       </c>
     </row>
     <row r="248">
@@ -3724,10 +3862,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="str">
+        <v>3:58</v>
+      </c>
+      <c r="C248" t="str">
         <v>Laszlo - Here We Are [NCS Release]</v>
       </c>
-      <c r="C248" t="str">
-        <v>•</v>
+      <c r="D248" t="str">
+        <v>5.3M views • 8 years ago</v>
       </c>
     </row>
     <row r="249">
@@ -3735,10 +3876,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="str">
+        <v>3:19</v>
+      </c>
+      <c r="C249" t="str">
         <v>Jim Yosef - Canary [NCS Release]</v>
       </c>
-      <c r="C249" t="str">
-        <v>•</v>
+      <c r="D249" t="str">
+        <v>5.3M views • 6 years ago</v>
       </c>
     </row>
     <row r="250">
@@ -3746,10 +3890,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="str">
+        <v>3:10</v>
+      </c>
+      <c r="C250" t="str">
         <v>Jim Yosef &amp; Alex Skrindo - Ruby[NCS Release]</v>
       </c>
-      <c r="C250" t="str">
-        <v>•</v>
+      <c r="D250" t="str">
+        <v>5.4M views • 4 years ago</v>
       </c>
     </row>
     <row r="251">
@@ -3757,10 +3904,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="str">
+        <v>4:11</v>
+      </c>
+      <c r="C251" t="str">
         <v>Lensko - Sarvagon 2015 [NCS Release]</v>
       </c>
-      <c r="C251" t="str">
-        <v>•</v>
+      <c r="D251" t="str">
+        <v>5.2M views • 8 years ago</v>
       </c>
     </row>
     <row r="252">
@@ -3768,10 +3918,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="str">
+        <v>2:49</v>
+      </c>
+      <c r="C252" t="str">
         <v>Ash O'Connor - Vibe [NCS Release]</v>
       </c>
-      <c r="C252" t="str">
-        <v>•</v>
+      <c r="D252" t="str">
+        <v>5.1M views • 7 years ago</v>
       </c>
     </row>
     <row r="253">
@@ -3779,10 +3932,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="str">
+        <v>3:57</v>
+      </c>
+      <c r="C253" t="str">
         <v>Electro-Light - Fall For Gravity feat. Nathan Brumley [NCS Release]</v>
       </c>
-      <c r="C253" t="str">
-        <v>•</v>
+      <c r="D253" t="str">
+        <v>5M views • 8 years ago</v>
       </c>
     </row>
     <row r="254">
@@ -3790,10 +3946,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="str">
+        <v>4:29</v>
+      </c>
+      <c r="C254" t="str">
         <v>The Eden Project - Chasing Ghosts [NCS Release]</v>
       </c>
-      <c r="C254" t="str">
-        <v>•</v>
+      <c r="D254" t="str">
+        <v>5.2M views • 8 years ago</v>
       </c>
     </row>
     <row r="255">
@@ -3801,10 +3960,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="str">
+        <v>3:41</v>
+      </c>
+      <c r="C255" t="str">
         <v>Cartoon feat. Jüri Pootsmann - I Remember U (Xilent Remix) [NCS Release]</v>
       </c>
-      <c r="C255" t="str">
-        <v>•</v>
+      <c r="D255" t="str">
+        <v>5M views • 6 years ago</v>
       </c>
     </row>
     <row r="256">
@@ -3812,10 +3974,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="str">
+        <v>3:39</v>
+      </c>
+      <c r="C256" t="str">
         <v>Jensation - Joystick [NCS Release]</v>
       </c>
-      <c r="C256" t="str">
-        <v>•</v>
+      <c r="D256" t="str">
+        <v>5.2M views • 6 years ago</v>
       </c>
     </row>
     <row r="257">
@@ -3823,10 +3988,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="str">
+        <v>4:06</v>
+      </c>
+      <c r="C257" t="str">
         <v>Sekai - Somebody [NCS Release]</v>
       </c>
-      <c r="C257" t="str">
-        <v>•</v>
+      <c r="D257" t="str">
+        <v>5M views • 5 years ago</v>
       </c>
     </row>
     <row r="258">
@@ -3834,10 +4002,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="str">
+        <v>4:40</v>
+      </c>
+      <c r="C258" t="str">
         <v>Phantom Sage - Silence (feat. Byndy) [NCS Release]</v>
       </c>
-      <c r="C258" t="str">
-        <v>•</v>
+      <c r="D258" t="str">
+        <v>5M views • 6 years ago</v>
       </c>
     </row>
     <row r="259">
@@ -3845,10 +4016,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="str">
+        <v>3:01</v>
+      </c>
+      <c r="C259" t="str">
         <v>Cartoon - Immortality (feat. Kristel Aaslaid) [NCS Release]</v>
       </c>
-      <c r="C259" t="str">
-        <v>•</v>
+      <c r="D259" t="str">
+        <v>5M views • 7 years ago</v>
       </c>
     </row>
     <row r="260">
@@ -3856,10 +4030,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="str">
+        <v>3:46</v>
+      </c>
+      <c r="C260" t="str">
         <v>HOVERBOOTS - One [NCS Release]</v>
       </c>
-      <c r="C260" t="str">
-        <v>•</v>
+      <c r="D260" t="str">
+        <v>4.9M views • 7 years ago</v>
       </c>
     </row>
     <row r="261">
@@ -3867,10 +4044,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="str">
+        <v>2:56</v>
+      </c>
+      <c r="C261" t="str">
         <v>Heuse - Stones (feat. Chris Linton &amp; Emma Sameth) [NCS Release]</v>
       </c>
-      <c r="C261" t="str">
-        <v>•</v>
+      <c r="D261" t="str">
+        <v>4.9M views • 6 years ago</v>
       </c>
     </row>
     <row r="262">
@@ -3878,10 +4058,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="str">
+        <v>4:44</v>
+      </c>
+      <c r="C262" t="str">
         <v>Anna Yvette &amp; AFK - Clouds [NCS Release]</v>
       </c>
-      <c r="C262" t="str">
-        <v>•</v>
+      <c r="D262" t="str">
+        <v>5M views • 6 years ago</v>
       </c>
     </row>
     <row r="263">
@@ -3889,10 +4072,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="str">
+        <v>3:58</v>
+      </c>
+      <c r="C263" t="str">
         <v>Electro-Light &amp; Jordan Kelvin James - Wait For You (feat. Anna Yvette) [NCS Release]</v>
       </c>
-      <c r="C263" t="str">
-        <v>•</v>
+      <c r="D263" t="str">
+        <v>4.9M views • 6 years ago</v>
       </c>
     </row>
     <row r="264">
@@ -3900,10 +4086,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="str">
+        <v>4:22</v>
+      </c>
+      <c r="C264" t="str">
         <v>Ash O'Connor - You [NCS Release]</v>
       </c>
-      <c r="C264" t="str">
-        <v>•</v>
+      <c r="D264" t="str">
+        <v>4.9M views • 7 years ago</v>
       </c>
     </row>
     <row r="265">
@@ -3911,10 +4100,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="str">
+        <v>2:53</v>
+      </c>
+      <c r="C265" t="str">
         <v>RetroVision - Puzzle VIP [NCS Release]</v>
       </c>
-      <c r="C265" t="str">
-        <v>•</v>
+      <c r="D265" t="str">
+        <v>5M views • 5 years ago</v>
       </c>
     </row>
     <row r="266">
@@ -3922,10 +4114,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="str">
+        <v>3:22</v>
+      </c>
+      <c r="C266" t="str">
         <v>Inukshuk - A World Away [NCS Release]</v>
       </c>
-      <c r="C266" t="str">
-        <v>•</v>
+      <c r="D266" t="str">
+        <v>4.8M views • 7 years ago</v>
       </c>
     </row>
     <row r="267">
@@ -3933,10 +4128,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="str">
+        <v>4:08</v>
+      </c>
+      <c r="C267" t="str">
         <v>Itro &amp; Kontinuum - Alive [NCS Release]</v>
       </c>
-      <c r="C267" t="str">
-        <v>•</v>
+      <c r="D267" t="str">
+        <v>4.8M views • 7 years ago</v>
       </c>
     </row>
     <row r="268">
@@ -3944,10 +4142,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="str">
+        <v>3:26</v>
+      </c>
+      <c r="C268" t="str">
         <v>Itro x Valcos - Starbound [NCS Release]</v>
       </c>
-      <c r="C268" t="str">
-        <v>•</v>
+      <c r="D268" t="str">
+        <v>4.7M views • 8 years ago</v>
       </c>
     </row>
     <row r="269">
@@ -3955,10 +4156,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="str">
+        <v>18:21</v>
+      </c>
+      <c r="C269" t="str">
         <v>NCS: The Best of 2016 [Album Mix]</v>
       </c>
-      <c r="C269" t="str">
-        <v>•</v>
+      <c r="D269" t="str">
+        <v>4.6M views • 6 years ago</v>
       </c>
     </row>
     <row r="270">
@@ -3966,10 +4170,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="str">
+        <v>4:22</v>
+      </c>
+      <c r="C270" t="str">
         <v>Johnny Third - Young Ones (feat. Jeremy Fowler) [NCS Release]</v>
       </c>
-      <c r="C270" t="str">
-        <v>•</v>
+      <c r="D270" t="str">
+        <v>4.7M views • 8 years ago</v>
       </c>
     </row>
     <row r="271">
@@ -3977,10 +4184,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="str">
+        <v>3:38</v>
+      </c>
+      <c r="C271" t="str">
         <v>3rd Prototype &amp; Lex Dave - Time (feat. Yohamna Solange) [NCS Release]</v>
       </c>
-      <c r="C271" t="str">
-        <v>•</v>
+      <c r="D271" t="str">
+        <v>4.7M views • 7 years ago</v>
       </c>
     </row>
     <row r="272">
@@ -3988,10 +4198,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="str">
+        <v>3:48</v>
+      </c>
+      <c r="C272" t="str">
         <v>Rob Gasser - Supersonic [NCS Release]</v>
       </c>
-      <c r="C272" t="str">
-        <v>•</v>
+      <c r="D272" t="str">
+        <v>4.9M views • 6 years ago</v>
       </c>
     </row>
     <row r="273">
@@ -3999,10 +4212,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="str">
+        <v>3:48</v>
+      </c>
+      <c r="C273" t="str">
         <v>Umpire - Gravity (feat. Liz Kretschmer) [NCS Release]</v>
       </c>
-      <c r="C273" t="str">
-        <v>•</v>
+      <c r="D273" t="str">
+        <v>4.6M views • 7 years ago</v>
       </c>
     </row>
     <row r="274">
@@ -4010,10 +4226,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="str">
+        <v>4:00</v>
+      </c>
+      <c r="C274" t="str">
         <v>Michael White - Got You [NCS Release]</v>
       </c>
-      <c r="C274" t="str">
-        <v>•</v>
+      <c r="D274" t="str">
+        <v>4.7M views • 5 years ago</v>
       </c>
     </row>
     <row r="275">
@@ -4021,10 +4240,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="str">
+        <v>3:14</v>
+      </c>
+      <c r="C275" t="str">
         <v>Far Out - Chains (feat. Alina Renae) [NCS Release]</v>
       </c>
-      <c r="C275" t="str">
-        <v>•</v>
+      <c r="D275" t="str">
+        <v>4.9M views • 5 years ago</v>
       </c>
     </row>
     <row r="276">
@@ -4032,10 +4254,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="str">
+        <v>4:23</v>
+      </c>
+      <c r="C276" t="str">
         <v>Culture Code &amp; Regoton ft. Jonny Rose - Waking Up [NCS Release]</v>
       </c>
-      <c r="C276" t="str">
-        <v>•</v>
+      <c r="D276" t="str">
+        <v>4.6M views • 8 years ago</v>
       </c>
     </row>
     <row r="277">
@@ -4043,10 +4268,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="str">
+        <v>4:28</v>
+      </c>
+      <c r="C277" t="str">
         <v>Dropouts - Let Go [NCS Release]</v>
       </c>
-      <c r="C277" t="str">
-        <v>•</v>
+      <c r="D277" t="str">
+        <v>4.7M views • 8 years ago</v>
       </c>
     </row>
     <row r="278">
@@ -4054,10 +4282,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="str">
+        <v>3:07</v>
+      </c>
+      <c r="C278" t="str">
         <v>Venemy - Need You Now (feat. Danica) [NCS Release]</v>
       </c>
-      <c r="C278" t="str">
-        <v>•</v>
+      <c r="D278" t="str">
+        <v>4.7M views • 5 years ago</v>
       </c>
     </row>
     <row r="279">
@@ -4065,10 +4296,13 @@
         <v>278</v>
       </c>
       <c r="B279" t="str">
+        <v>4:35</v>
+      </c>
+      <c r="C279" t="str">
         <v>JJD - Future [NCS Release]</v>
       </c>
-      <c r="C279" t="str">
-        <v>•</v>
+      <c r="D279" t="str">
+        <v>4.7M views • 6 years ago</v>
       </c>
     </row>
     <row r="280">
@@ -4076,10 +4310,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="str">
+        <v>3:27</v>
+      </c>
+      <c r="C280" t="str">
         <v>Distrion &amp; Alex Skrindo - Lightning [NCS Release]</v>
       </c>
-      <c r="C280" t="str">
-        <v>•</v>
+      <c r="D280" t="str">
+        <v>4.7M views • 5 years ago</v>
       </c>
     </row>
     <row r="281">
@@ -4087,10 +4324,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="str">
+        <v>2:40</v>
+      </c>
+      <c r="C281" t="str">
         <v>CØDE - Get The Party [NCS Release]</v>
       </c>
-      <c r="C281" t="str">
-        <v>•</v>
+      <c r="D281" t="str">
+        <v>4.7M views • 5 years ago</v>
       </c>
     </row>
     <row r="282">
@@ -4098,10 +4338,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="str">
+        <v>3:25</v>
+      </c>
+      <c r="C282" t="str">
         <v>Rogers &amp; Dean - No Doubt (Rival x Cadmium Remix) [NCS Release]</v>
       </c>
-      <c r="C282" t="str">
-        <v>•</v>
+      <c r="D282" t="str">
+        <v>4.6M views • 4 years ago</v>
       </c>
     </row>
     <row r="283">
@@ -4109,10 +4352,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="str">
+        <v>4:27</v>
+      </c>
+      <c r="C283" t="str">
         <v>NCT x T &amp; Sugah - Along The Road (feat. Voicians) [NCS Release]</v>
       </c>
-      <c r="C283" t="str">
-        <v>•</v>
+      <c r="D283" t="str">
+        <v>4.6M views • 6 years ago</v>
       </c>
     </row>
     <row r="284">
@@ -4120,10 +4366,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="str">
+        <v>3:18</v>
+      </c>
+      <c r="C284" t="str">
         <v>BVRNOUT - Take It Easy (feat. Mia Vaile) [NCS Release]</v>
       </c>
-      <c r="C284" t="str">
-        <v>•</v>
+      <c r="D284" t="str">
+        <v>4.6M views • 5 years ago</v>
       </c>
     </row>
     <row r="285">
@@ -4131,10 +4380,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="str">
+        <v>3:36</v>
+      </c>
+      <c r="C285" t="str">
         <v>Dread Pitt - Pyro [NCS Release]</v>
       </c>
-      <c r="C285" t="str">
-        <v>•</v>
+      <c r="D285" t="str">
+        <v>4.6M views • 6 years ago</v>
       </c>
     </row>
     <row r="286">
@@ -4142,10 +4394,13 @@
         <v>285</v>
       </c>
       <c r="B286" t="str">
+        <v>3:06</v>
+      </c>
+      <c r="C286" t="str">
         <v>Unknown Brain &amp; Anna Yvette - Twisted Reality [NCS Release]</v>
       </c>
-      <c r="C286" t="str">
-        <v>•</v>
+      <c r="D286" t="str">
+        <v>4.6M views • 5 years ago</v>
       </c>
     </row>
     <row r="287">
@@ -4153,10 +4408,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="str">
+        <v>3:19</v>
+      </c>
+      <c r="C287" t="str">
         <v>Axol - ILY [NCS Release]</v>
       </c>
-      <c r="C287" t="str">
-        <v>•</v>
+      <c r="D287" t="str">
+        <v>4.4M views • 6 years ago</v>
       </c>
     </row>
     <row r="288">
@@ -4164,10 +4422,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="str">
+        <v>3:35</v>
+      </c>
+      <c r="C288" t="str">
         <v>Chime &amp; Adam Tell - Whole [NCS Release]</v>
       </c>
-      <c r="C288" t="str">
-        <v>•</v>
+      <c r="D288" t="str">
+        <v>4.4M views • 6 years ago</v>
       </c>
     </row>
     <row r="289">
@@ -4175,10 +4436,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="str">
+        <v>2:47</v>
+      </c>
+      <c r="C289" t="str">
         <v>Halvorsen - Wouldn't Change It [NCS Release]</v>
       </c>
-      <c r="C289" t="str">
-        <v>•</v>
+      <c r="D289" t="str">
+        <v>4.4M views • 7 years ago</v>
       </c>
     </row>
     <row r="290">
@@ -4186,10 +4450,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="str">
+        <v>4:33</v>
+      </c>
+      <c r="C290" t="str">
         <v>Y&amp;V - Back In Time [NCS Release]</v>
       </c>
-      <c r="C290" t="str">
-        <v>•</v>
+      <c r="D290" t="str">
+        <v>4.4M views • 6 years ago</v>
       </c>
     </row>
     <row r="291">
@@ -4197,10 +4464,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="str">
+        <v>2:38</v>
+      </c>
+      <c r="C291" t="str">
         <v>Raven &amp; Kreyn - In The Air [NCS Release]</v>
       </c>
-      <c r="C291" t="str">
-        <v>•</v>
+      <c r="D291" t="str">
+        <v>4.3M views • 5 years ago</v>
       </c>
     </row>
     <row r="292">
@@ -4208,10 +4478,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="str">
+        <v>3:48</v>
+      </c>
+      <c r="C292" t="str">
         <v>ElementD - Giving In (feat. Mees Van Den Berg) [NCS Release]</v>
       </c>
-      <c r="C292" t="str">
-        <v>•</v>
+      <c r="D292" t="str">
+        <v>4.5M views • 5 years ago</v>
       </c>
     </row>
     <row r="293">
@@ -4219,10 +4492,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="str">
+        <v>4:18</v>
+      </c>
+      <c r="C293" t="str">
         <v>Fareoh - Cloud Ten [NCS Release]</v>
       </c>
-      <c r="C293" t="str">
-        <v>•</v>
+      <c r="D293" t="str">
+        <v>4.3M views • 6 years ago</v>
       </c>
     </row>
     <row r="294">
@@ -4230,10 +4506,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="str">
+        <v>3:08</v>
+      </c>
+      <c r="C294" t="str">
         <v>WATEVA - See U (feat. Johnning) [NCS Release]</v>
       </c>
-      <c r="C294" t="str">
-        <v>•</v>
+      <c r="D294" t="str">
+        <v>4.3M views • 5 years ago</v>
       </c>
     </row>
     <row r="295">
@@ -4241,10 +4520,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="str">
+        <v>2:43</v>
+      </c>
+      <c r="C295" t="str">
         <v>RetroVision - Over Again (feat. Micah Martin) [NCS Release]</v>
       </c>
-      <c r="C295" t="str">
-        <v>•</v>
+      <c r="D295" t="str">
+        <v>4.4M views • 5 years ago</v>
       </c>
     </row>
     <row r="296">
@@ -4252,10 +4534,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="str">
+        <v>4:28</v>
+      </c>
+      <c r="C296" t="str">
         <v>Abandoned &amp; InfiNoise - Night Caller (feat. Project Nightfall) [NCS Release]</v>
       </c>
-      <c r="C296" t="str">
-        <v>•</v>
+      <c r="D296" t="str">
+        <v>4.3M views • 5 years ago</v>
       </c>
     </row>
     <row r="297">
@@ -4263,10 +4548,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="str">
+        <v>4:03</v>
+      </c>
+      <c r="C297" t="str">
         <v>Konac - Home [NCS Release]</v>
       </c>
-      <c r="C297" t="str">
-        <v>•</v>
+      <c r="D297" t="str">
+        <v>4.3M views • 6 years ago</v>
       </c>
     </row>
     <row r="298">
@@ -4274,10 +4562,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="str">
+        <v>3:19</v>
+      </c>
+      <c r="C298" t="str">
         <v>Sekai - Running [NCS Release]</v>
       </c>
-      <c r="C298" t="str">
-        <v>•</v>
+      <c r="D298" t="str">
+        <v>4.3M views • 4 years ago</v>
       </c>
     </row>
     <row r="299">
@@ -4285,10 +4576,13 @@
         <v>298</v>
       </c>
       <c r="B299" t="str">
+        <v>3:02</v>
+      </c>
+      <c r="C299" t="str">
         <v>Kadenza - Harpuia [NCS Release]</v>
       </c>
-      <c r="C299" t="str">
-        <v>•</v>
+      <c r="D299" t="str">
+        <v>4.3M views • 6 years ago</v>
       </c>
     </row>
     <row r="300">
@@ -4296,10 +4590,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="str">
+        <v>4:39</v>
+      </c>
+      <c r="C300" t="str">
         <v>Electro-Light - The Ways (feat. Aloma Steele) [NCS Release]</v>
       </c>
-      <c r="C300" t="str">
-        <v>•</v>
+      <c r="D300" t="str">
+        <v>4.2M views • 7 years ago</v>
       </c>
     </row>
     <row r="301">
@@ -4307,25 +4604,6715 @@
         <v>300</v>
       </c>
       <c r="B301" t="str">
+        <v>4:27</v>
+      </c>
+      <c r="C301" t="str">
         <v>Lensko - Rebirth [NCS Release]</v>
       </c>
-      <c r="C301" t="str">
-        <v>•</v>
+      <c r="D301" t="str">
+        <v>4.4M views • 6 years ago</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v/>
+        <v>301</v>
+      </c>
+      <c r="B302" t="str">
+        <v>4:18</v>
+      </c>
+      <c r="C302" t="str">
+        <v>Dropouts - Unity (feat. Aloma Steele) [NCS Release]</v>
+      </c>
+      <c r="D302" t="str">
+        <v>4.2M views • 8 years ago</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
+        <v>302</v>
+      </c>
+      <c r="B303" t="str">
+        <v>4:44</v>
+      </c>
+      <c r="C303" t="str">
+        <v>Itro - Skyward Bound (feat. Kédo Rebelle) [NCS Release]</v>
+      </c>
+      <c r="D303" t="str">
+        <v>4.1M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>303</v>
+      </c>
+      <c r="B304" t="str">
+        <v>4:31</v>
+      </c>
+      <c r="C304" t="str">
+        <v>Phantom Sage - The Light [NCS Release]</v>
+      </c>
+      <c r="D304" t="str">
+        <v>4.1M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>304</v>
+      </c>
+      <c r="B305" t="str">
+        <v>3:18</v>
+      </c>
+      <c r="C305" t="str">
+        <v>Inukshuk - We Were Infinite [NCS Release]</v>
+      </c>
+      <c r="D305" t="str">
+        <v>4.1M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>305</v>
+      </c>
+      <c r="B306" t="str">
+        <v>3:55</v>
+      </c>
+      <c r="C306" t="str">
+        <v>Subtact - Away [NCS Release]</v>
+      </c>
+      <c r="D306" t="str">
+        <v>4.1M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>306</v>
+      </c>
+      <c r="B307" t="str">
+        <v>4:54</v>
+      </c>
+      <c r="C307" t="str">
+        <v>Rameses B - Beside You (feat. Soundr) [NCS Release]</v>
+      </c>
+      <c r="D307" t="str">
+        <v>4.2M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>307</v>
+      </c>
+      <c r="B308" t="str">
+        <v>4:42</v>
+      </c>
+      <c r="C308" t="str">
+        <v>IZECOLD - Close (feat. Molly Ann) [NCS x FHM Release]</v>
+      </c>
+      <c r="D308" t="str">
+        <v>4M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>308</v>
+      </c>
+      <c r="B309" t="str">
+        <v>4:03</v>
+      </c>
+      <c r="C309" t="str">
+        <v>Kontinuum - First Rain [NCS Release]</v>
+      </c>
+      <c r="D309" t="str">
+        <v>4.1M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>309</v>
+      </c>
+      <c r="B310" t="str">
+        <v>2:46</v>
+      </c>
+      <c r="C310" t="str">
+        <v>Janji - Together (Feat. Vivien) [NCS Release]</v>
+      </c>
+      <c r="D310" t="str">
+        <v>4.1M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>310</v>
+      </c>
+      <c r="B311" t="str">
+        <v>3:15</v>
+      </c>
+      <c r="C311" t="str">
+        <v>Janji feat. TR - Milky Way Stars [NCS Release]</v>
+      </c>
+      <c r="D311" t="str">
+        <v>4.1M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>311</v>
+      </c>
+      <c r="B312" t="str">
+        <v>3:27</v>
+      </c>
+      <c r="C312" t="str">
+        <v>Egzod - Mirage (feat. Leo The Kind) [NCS Release]</v>
+      </c>
+      <c r="D312" t="str">
+        <v>4.1M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>312</v>
+      </c>
+      <c r="B313" t="str">
+        <v>2:54</v>
+      </c>
+      <c r="C313" t="str">
+        <v>Emdi x Coorby - Lonewolf (feat. Kristi-Leah) [NCS Release]</v>
+      </c>
+      <c r="D313" t="str">
+        <v>4M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>313</v>
+      </c>
+      <c r="B314" t="str">
+        <v>3:29</v>
+      </c>
+      <c r="C314" t="str">
+        <v>Warptech - Last Summer [NCS Release]</v>
+      </c>
+      <c r="D314" t="str">
+        <v>4M views • 9 years ago</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>314</v>
+      </c>
+      <c r="B315" t="str">
+        <v>3:42</v>
+      </c>
+      <c r="C315" t="str">
+        <v>DM Galaxy - Paralyzed (Disfigure Remix) [NCS Release]</v>
+      </c>
+      <c r="D315" t="str">
+        <v>3.9M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>315</v>
+      </c>
+      <c r="B316" t="str">
+        <v>3:11</v>
+      </c>
+      <c r="C316" t="str">
+        <v>Cartoon - Your Stories (feat. Koit Toome) [NCS Release]</v>
+      </c>
+      <c r="D316" t="str">
+        <v>4M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>316</v>
+      </c>
+      <c r="B317" t="str">
+        <v>3:18</v>
+      </c>
+      <c r="C317" t="str">
+        <v>Kozah - Haha [NCS Release]</v>
+      </c>
+      <c r="D317" t="str">
+        <v>4M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>317</v>
+      </c>
+      <c r="B318" t="str">
+        <v>3:12</v>
+      </c>
+      <c r="C318" t="str">
+        <v>Disfigure - Blank (HYLO Remix) [NCS Release]</v>
+      </c>
+      <c r="D318" t="str">
+        <v>4.1M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>318</v>
+      </c>
+      <c r="B319" t="str">
+        <v>3:02</v>
+      </c>
+      <c r="C319" t="str">
+        <v>DM Galaxy - Bad Motives (feat. Aloma Steele) [NCS Release]</v>
+      </c>
+      <c r="D319" t="str">
+        <v>3.8M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>319</v>
+      </c>
+      <c r="B320" t="str">
+        <v>4:44</v>
+      </c>
+      <c r="C320" t="str">
+        <v>The Eden Project - Lost [NCS Release]</v>
+      </c>
+      <c r="D320" t="str">
+        <v>4M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>320</v>
+      </c>
+      <c r="B321" t="str">
+        <v>3:02</v>
+      </c>
+      <c r="C321" t="str">
+        <v>Unknown Brain - Roots (feat. Attxla) [NCS Release]</v>
+      </c>
+      <c r="D321" t="str">
+        <v>4M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>321</v>
+      </c>
+      <c r="B322" t="str">
+        <v>4:32</v>
+      </c>
+      <c r="C322" t="str">
+        <v>Kontinuum - Aware [NCS Release]</v>
+      </c>
+      <c r="D322" t="str">
+        <v>3.9M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>322</v>
+      </c>
+      <c r="B323" t="str">
+        <v>4:23</v>
+      </c>
+      <c r="C323" t="str">
+        <v>Spitfya x Desembra - Cut The Check [NCS Release]</v>
+      </c>
+      <c r="D323" t="str">
+        <v>3.9M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>323</v>
+      </c>
+      <c r="B324" t="str">
+        <v>3:14</v>
+      </c>
+      <c r="C324" t="str">
+        <v>Kovan &amp; Alex Skrindo - Into The Wild (feat. Izzy) [NCS Release]</v>
+      </c>
+      <c r="D324" t="str">
+        <v>4M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>324</v>
+      </c>
+      <c r="B325" t="str">
+        <v>4:22</v>
+      </c>
+      <c r="C325" t="str">
+        <v>Vena Cava - TOHKA (feat. Raya) [NCS Release]</v>
+      </c>
+      <c r="D325" t="str">
+        <v>3.8M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>325</v>
+      </c>
+      <c r="B326" t="str">
+        <v>4:56</v>
+      </c>
+      <c r="C326" t="str">
+        <v>JIKES (Ft. Nori) - Let's Fly Away Pt.2 [NCS Release]</v>
+      </c>
+      <c r="D326" t="str">
+        <v>3.8M views • 9 years ago</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>326</v>
+      </c>
+      <c r="B327" t="str">
+        <v>3:19</v>
+      </c>
+      <c r="C327" t="str">
+        <v>Light Years Away - Melrose At Midnight [NCS Release]</v>
+      </c>
+      <c r="D327" t="str">
+        <v>3.8M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>327</v>
+      </c>
+      <c r="B328" t="str">
+        <v>3:20</v>
+      </c>
+      <c r="C328" t="str">
+        <v>Kozah - Heavens [NCS Release]</v>
+      </c>
+      <c r="D328" t="str">
+        <v>3.8M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>328</v>
+      </c>
+      <c r="B329" t="str">
+        <v>3:41</v>
+      </c>
+      <c r="C329" t="str">
+        <v>Blazars - Polaris [NCS Release]</v>
+      </c>
+      <c r="D329" t="str">
+        <v>3.7M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>329</v>
+      </c>
+      <c r="B330" t="str">
+        <v>3:35</v>
+      </c>
+      <c r="C330" t="str">
+        <v>Brig - Spoil [NCS Release]</v>
+      </c>
+      <c r="D330" t="str">
+        <v>3.7M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>330</v>
+      </c>
+      <c r="B331" t="str">
+        <v>2:47</v>
+      </c>
+      <c r="C331" t="str">
+        <v>Valcos - A New Light [NCS Release]</v>
+      </c>
+      <c r="D331" t="str">
+        <v>3.8M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>331</v>
+      </c>
+      <c r="B332" t="str">
+        <v>3:44</v>
+      </c>
+      <c r="C332" t="str">
+        <v>3rd Prototype - Get In [NCS Release]</v>
+      </c>
+      <c r="D332" t="str">
+        <v>3.7M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>332</v>
+      </c>
+      <c r="B333" t="str">
+        <v>3:36</v>
+      </c>
+      <c r="C333" t="str">
+        <v>OLWIK - Villain (feat. Tyler Fiore) [NCS Release]</v>
+      </c>
+      <c r="D333" t="str">
+        <v>3.6M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>333</v>
+      </c>
+      <c r="B334" t="str">
+        <v>3:18</v>
+      </c>
+      <c r="C334" t="str">
+        <v>Uplink &amp; Alex Skrindo - Me &amp; You (feat. Axol) [NCS Release]</v>
+      </c>
+      <c r="D334" t="str">
+        <v>3.7M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>334</v>
+      </c>
+      <c r="B335" t="str">
+        <v>5:21</v>
+      </c>
+      <c r="C335" t="str">
+        <v>Laszlo - One Step Away [NCS Release]</v>
+      </c>
+      <c r="D335" t="str">
+        <v>3.7M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>335</v>
+      </c>
+      <c r="B336" t="str">
+        <v>4:04</v>
+      </c>
+      <c r="C336" t="str">
+        <v>Chime - Phototropic [NCS Release]</v>
+      </c>
+      <c r="D336" t="str">
+        <v>3.7M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>336</v>
+      </c>
+      <c r="B337" t="str">
+        <v>2:48</v>
+      </c>
+      <c r="C337" t="str">
+        <v>CØDE - Duck Face [NCS Release]</v>
+      </c>
+      <c r="D337" t="str">
+        <v>3.6M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>337</v>
+      </c>
+      <c r="B338" t="str">
+        <v>3:56</v>
+      </c>
+      <c r="C338" t="str">
+        <v>Anikdote - Imma Killa [NCS Release]</v>
+      </c>
+      <c r="D338" t="str">
+        <v>3.7M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>338</v>
+      </c>
+      <c r="B339" t="str">
+        <v>3:34</v>
+      </c>
+      <c r="C339" t="str">
+        <v>Voicians - Seconds [NCS Release]</v>
+      </c>
+      <c r="D339" t="str">
+        <v>3.6M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>339</v>
+      </c>
+      <c r="B340" t="str">
+        <v>3:39</v>
+      </c>
+      <c r="C340" t="str">
+        <v>Debris &amp; Our Psych - Omerta [NCS Release]</v>
+      </c>
+      <c r="D340" t="str">
+        <v>3.7M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>340</v>
+      </c>
+      <c r="B341" t="str">
+        <v>3:16</v>
+      </c>
+      <c r="C341" t="str">
+        <v>Blazars - Northern Lights [NCS Release]</v>
+      </c>
+      <c r="D341" t="str">
+        <v>3.8M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>341</v>
+      </c>
+      <c r="B342" t="str">
+        <v>5:21</v>
+      </c>
+      <c r="C342" t="str">
+        <v>SirensCeol - Nostalgia [NCS Release]</v>
+      </c>
+      <c r="D342" t="str">
+        <v>3.6M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>342</v>
+      </c>
+      <c r="B343" t="str">
+        <v>4:39</v>
+      </c>
+      <c r="C343" t="str">
+        <v>Sex Whales &amp; Phantom Sage - One Day [NCS Release]</v>
+      </c>
+      <c r="D343" t="str">
+        <v>3.6M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>343</v>
+      </c>
+      <c r="B344" t="str">
+        <v>3:58</v>
+      </c>
+      <c r="C344" t="str">
+        <v>Warptech ft. Cory Friesenhan - Resolution [NCS Release]</v>
+      </c>
+      <c r="D344" t="str">
+        <v>3.6M views • 9 years ago</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>344</v>
+      </c>
+      <c r="B345" t="str">
+        <v>3:41</v>
+      </c>
+      <c r="C345" t="str">
+        <v>Malik Bash - Apollo [NCS Release]</v>
+      </c>
+      <c r="D345" t="str">
+        <v>3.6M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>345</v>
+      </c>
+      <c r="B346" t="str">
+        <v>4:16</v>
+      </c>
+      <c r="C346" t="str">
+        <v>Vanze &amp; Reunify - Angel (feat. Parker Polhill &amp; Bibiane Z) [NCS Release]</v>
+      </c>
+      <c r="D346" t="str">
+        <v>3.7M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>346</v>
+      </c>
+      <c r="B347" t="str">
+        <v>3:29</v>
+      </c>
+      <c r="C347" t="str">
+        <v>Marin Hoxha &amp; Chris Linton - With You [NCS Release]</v>
+      </c>
+      <c r="D347" t="str">
+        <v>3.6M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>347</v>
+      </c>
+      <c r="B348" t="str">
+        <v>3:05</v>
+      </c>
+      <c r="C348" t="str">
+        <v>Domastic - Forever [NCS Release]</v>
+      </c>
+      <c r="D348" t="str">
+        <v>3.6M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>348</v>
+      </c>
+      <c r="B349" t="str">
+        <v>4:37</v>
+      </c>
+      <c r="C349" t="str">
+        <v>SirensCeol &amp; Reaktion ft. The Eden Project - Let You Know [NCS Release]</v>
+      </c>
+      <c r="D349" t="str">
+        <v>3.5M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>349</v>
+      </c>
+      <c r="B350" t="str">
+        <v>4:20</v>
+      </c>
+      <c r="C350" t="str">
+        <v>Mendum - Red Hands (feat. Omri) [NCS Release]</v>
+      </c>
+      <c r="D350" t="str">
+        <v>3.5M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>350</v>
+      </c>
+      <c r="B351" t="str">
+        <v>2:46</v>
+      </c>
+      <c r="C351" t="str">
+        <v>RetroVision &amp; Domastic - SICC [NCS Release]</v>
+      </c>
+      <c r="D351" t="str">
+        <v>3.5M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>351</v>
+      </c>
+      <c r="B352" t="str">
+        <v>3:41</v>
+      </c>
+      <c r="C352" t="str">
+        <v>Axtasia - Light Up The Sky (feat. Soundr) [NCS Release]</v>
+      </c>
+      <c r="D352" t="str">
+        <v>3.5M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>352</v>
+      </c>
+      <c r="B353" t="str">
+        <v>3:02</v>
+      </c>
+      <c r="C353" t="str">
+        <v>Kontinuum - Lost (feat. Savoi) [Sunroof Remix] | NCS Release</v>
+      </c>
+      <c r="D353" t="str">
+        <v>3.5M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>353</v>
+      </c>
+      <c r="B354" t="str">
+        <v>3:37</v>
+      </c>
+      <c r="C354" t="str">
+        <v>Halcyon &amp; Starlyte - Escape With Me (feat. Charlotte Haining) [NCS Release]</v>
+      </c>
+      <c r="D354" t="str">
+        <v>3.4M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>354</v>
+      </c>
+      <c r="B355" t="str">
+        <v>3:08</v>
+      </c>
+      <c r="C355" t="str">
+        <v>Paul Flint - Sock It To Them [NCS Release]</v>
+      </c>
+      <c r="D355" t="str">
+        <v>3.4M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>355</v>
+      </c>
+      <c r="B356" t="str">
+        <v>2:35</v>
+      </c>
+      <c r="C356" t="str">
+        <v>Raven &amp; Kreyn - Biscuit[NCS Release]</v>
+      </c>
+      <c r="D356" t="str">
+        <v>3.5M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>356</v>
+      </c>
+      <c r="B357" t="str">
+        <v>4:13</v>
+      </c>
+      <c r="C357" t="str">
+        <v>Oneeva - Platform 9 [NCS Release]</v>
+      </c>
+      <c r="D357" t="str">
+        <v>3.5M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>357</v>
+      </c>
+      <c r="B358" t="str">
+        <v>3:59</v>
+      </c>
+      <c r="C358" t="str">
+        <v>Ephixa &amp; Jim Yosef - Everlasting [NCS Release]</v>
+      </c>
+      <c r="D358" t="str">
+        <v>3.4M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>358</v>
+      </c>
+      <c r="B359" t="str">
+        <v>3:38</v>
+      </c>
+      <c r="C359" t="str">
+        <v>Joe Garston - Loud &amp; Clear (feat. Richard Caddock)[NCS Release]</v>
+      </c>
+      <c r="D359" t="str">
+        <v>3.3M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>359</v>
+      </c>
+      <c r="B360" t="str">
+        <v>2:34</v>
+      </c>
+      <c r="C360" t="str">
+        <v>Deflo &amp; Lliam Taylor - Spotlight (feat. AWA) [NCS Release]</v>
+      </c>
+      <c r="D360" t="str">
+        <v>3.4M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>360</v>
+      </c>
+      <c r="B361" t="str">
+        <v>3:33</v>
+      </c>
+      <c r="C361" t="str">
+        <v>Kovan - Thrill Is Gone (feat. Mark Borino) [NCS Release]</v>
+      </c>
+      <c r="D361" t="str">
+        <v>3.4M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>361</v>
+      </c>
+      <c r="B362" t="str">
+        <v>3:55</v>
+      </c>
+      <c r="C362" t="str">
+        <v>Paul Flint - Watch The World Burn (feat. Chris Linton) [NCS Release]</v>
+      </c>
+      <c r="D362" t="str">
+        <v>3.4M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>362</v>
+      </c>
+      <c r="B363" t="str">
+        <v>4:05</v>
+      </c>
+      <c r="C363" t="str">
+        <v>Malik Bash - Ghosts [NCS Release]</v>
+      </c>
+      <c r="D363" t="str">
+        <v>3.4M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>363</v>
+      </c>
+      <c r="B364" t="str">
+        <v>4:08</v>
+      </c>
+      <c r="C364" t="str">
+        <v>Showdown - Freedom (feat. IMAN) [NCS Release]</v>
+      </c>
+      <c r="D364" t="str">
+        <v>3.4M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>364</v>
+      </c>
+      <c r="B365" t="str">
+        <v>3:20</v>
+      </c>
+      <c r="C365" t="str">
+        <v>Mountkid - No Lullaby [NCS Release]</v>
+      </c>
+      <c r="D365" t="str">
+        <v>3.5M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>365</v>
+      </c>
+      <c r="B366" t="str">
+        <v>4:02</v>
+      </c>
+      <c r="C366" t="str">
+        <v>Warptech feat. Cory Friesenhan - In The Stories [NCS Release]</v>
+      </c>
+      <c r="D366" t="str">
+        <v>3.2M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>366</v>
+      </c>
+      <c r="B367" t="str">
+        <v>2:57</v>
+      </c>
+      <c r="C367" t="str">
+        <v>Axol - Mars [NCS Release]</v>
+      </c>
+      <c r="D367" t="str">
+        <v>3.4M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>367</v>
+      </c>
+      <c r="B368" t="str">
+        <v>3:27</v>
+      </c>
+      <c r="C368" t="str">
+        <v>Electronic Vibes - Don't Leave Me (ft. Mime) [NCS Release]</v>
+      </c>
+      <c r="D368" t="str">
+        <v>3.3M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>368</v>
+      </c>
+      <c r="B369" t="str">
+        <v>4:12</v>
+      </c>
+      <c r="C369" t="str">
+        <v>Au5 - Closer (feat. Danyka Nadeau) [NCS Release]</v>
+      </c>
+      <c r="D369" t="str">
+        <v>3.4M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>369</v>
+      </c>
+      <c r="B370" t="str">
+        <v>2:53</v>
+      </c>
+      <c r="C370" t="str">
+        <v>Michael White - All Eyes On Me [NCS Release]</v>
+      </c>
+      <c r="D370" t="str">
+        <v>3.3M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>370</v>
+      </c>
+      <c r="B371" t="str">
+        <v>3:46</v>
+      </c>
+      <c r="C371" t="str">
+        <v>LFZ - Echoes (Meikal Remix) [NCS Release]</v>
+      </c>
+      <c r="D371" t="str">
+        <v>3.3M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>371</v>
+      </c>
+      <c r="B372" t="str">
+        <v>3:08</v>
+      </c>
+      <c r="C372" t="str">
+        <v>Waysons - Running [NCS Release]</v>
+      </c>
+      <c r="D372" t="str">
+        <v>3.3M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>372</v>
+      </c>
+      <c r="B373" t="str">
+        <v>3:02</v>
+      </c>
+      <c r="C373" t="str">
+        <v>Egzod - Wake Up (feat. Chris Linton) [NCS Release]</v>
+      </c>
+      <c r="D373" t="str">
+        <v>3.3M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>373</v>
+      </c>
+      <c r="B374" t="str">
+        <v>3:32</v>
+      </c>
+      <c r="C374" t="str">
+        <v>HYLO - Paradise ft. Akacia [NCS Release]</v>
+      </c>
+      <c r="D374" t="str">
+        <v>3.3M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>374</v>
+      </c>
+      <c r="B375" t="str">
+        <v>2:40</v>
+      </c>
+      <c r="C375" t="str">
+        <v>Raven &amp; Kreyn - Call Me Again [NCS Release]</v>
+      </c>
+      <c r="D375" t="str">
+        <v>3.3M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>375</v>
+      </c>
+      <c r="B376" t="str">
+        <v>4:35</v>
+      </c>
+      <c r="C376" t="str">
+        <v>Elliot Berger - Hold On (feat. Ranja) [NCS Release]</v>
+      </c>
+      <c r="D376" t="str">
+        <v>3.2M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>376</v>
+      </c>
+      <c r="B377" t="str">
+        <v>3:21</v>
+      </c>
+      <c r="C377" t="str">
+        <v>NIVIRO - Sapphire [NCS Release]</v>
+      </c>
+      <c r="D377" t="str">
+        <v>3.3M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>377</v>
+      </c>
+      <c r="B378" t="str">
+        <v>4:31</v>
+      </c>
+      <c r="C378" t="str">
+        <v>T &amp; Sugah - Sleepless (feat. MVE) [NCS Release]</v>
+      </c>
+      <c r="D378" t="str">
+        <v>3.3M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>378</v>
+      </c>
+      <c r="B379" t="str">
+        <v>3:19</v>
+      </c>
+      <c r="C379" t="str">
+        <v>Desembra - Hit 'Em [NCS Release]</v>
+      </c>
+      <c r="D379" t="str">
+        <v>3.2M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>379</v>
+      </c>
+      <c r="B380" t="str">
+        <v>3:00</v>
+      </c>
+      <c r="C380" t="str">
+        <v>Jim Yosef - Imagine [NCS Release]</v>
+      </c>
+      <c r="D380" t="str">
+        <v>3.3M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>380</v>
+      </c>
+      <c r="B381" t="str">
+        <v>4:12</v>
+      </c>
+      <c r="C381" t="str">
+        <v>Inukshuk - Happy Accidents [NCS Release]</v>
+      </c>
+      <c r="D381" t="str">
+        <v>3.2M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>381</v>
+      </c>
+      <c r="B382" t="str">
+        <v>3:19</v>
+      </c>
+      <c r="C382" t="str">
+        <v>Laszlo - Don't Look Down [NCS Release]</v>
+      </c>
+      <c r="D382" t="str">
+        <v>3.2M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>382</v>
+      </c>
+      <c r="B383" t="str">
+        <v>3:31</v>
+      </c>
+      <c r="C383" t="str">
+        <v>ElementD &amp; Chordinatez - Radiate (feat. Mees Van Den Berg) [NCS Release]</v>
+      </c>
+      <c r="D383" t="str">
+        <v>3.4M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>383</v>
+      </c>
+      <c r="B384" t="str">
+        <v>3:44</v>
+      </c>
+      <c r="C384" t="str">
+        <v>Jim Yosef &amp; Anna Yvette - Courage [NCS Release]</v>
+      </c>
+      <c r="D384" t="str">
+        <v>3.2M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>384</v>
+      </c>
+      <c r="B385" t="str">
+        <v>5:11</v>
+      </c>
+      <c r="C385" t="str">
+        <v>Vena Cava &amp; Project Veresen feat. Raya - Flames [NCS Release]</v>
+      </c>
+      <c r="D385" t="str">
+        <v>3.2M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>385</v>
+      </c>
+      <c r="B386" t="str">
+        <v>3:07</v>
+      </c>
+      <c r="C386" t="str">
+        <v>Glude - Identity [NCS Release]</v>
+      </c>
+      <c r="D386" t="str">
+        <v>3.1M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>386</v>
+      </c>
+      <c r="B387" t="str">
+        <v>4:02</v>
+      </c>
+      <c r="C387" t="str">
+        <v>Anikdote x Absent Faith - Heavens Gate (feat. Oriental Cravings) [NCS Release]</v>
+      </c>
+      <c r="D387" t="str">
+        <v>3.1M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>387</v>
+      </c>
+      <c r="B388" t="str">
+        <v>3:07</v>
+      </c>
+      <c r="C388" t="str">
+        <v>NIVIRO - I Just Wanna [NCS Release]</v>
+      </c>
+      <c r="D388" t="str">
+        <v>3.2M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>388</v>
+      </c>
+      <c r="B389" t="str">
+        <v>2:55</v>
+      </c>
+      <c r="C389" t="str">
+        <v>Jo Cohen &amp; Sex Whales - Run Away (feat. Lusil) [NCS Release]</v>
+      </c>
+      <c r="D389" t="str">
+        <v>3.1M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>389</v>
+      </c>
+      <c r="B390" t="str">
+        <v>2:47</v>
+      </c>
+      <c r="C390" t="str">
+        <v>Glude - Dreamers [NCS Release]</v>
+      </c>
+      <c r="D390" t="str">
+        <v>3.1M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>390</v>
+      </c>
+      <c r="B391" t="str">
+        <v>4:10</v>
+      </c>
+      <c r="C391" t="str">
+        <v>Aero Chord &amp; Anuka - Incomplete [NCS Release]</v>
+      </c>
+      <c r="D391" t="str">
+        <v>3.1M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>391</v>
+      </c>
+      <c r="B392" t="str">
+        <v>4:46</v>
+      </c>
+      <c r="C392" t="str">
+        <v>Phantom Sage - When I’m Gone [NCS Release]</v>
+      </c>
+      <c r="D392" t="str">
+        <v>3.1M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>392</v>
+      </c>
+      <c r="B393" t="str">
+        <v>3:12</v>
+      </c>
+      <c r="C393" t="str">
+        <v>Rogers &amp; Dean - No Doubt [NCS Release]</v>
+      </c>
+      <c r="D393" t="str">
+        <v>3.1M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>393</v>
+      </c>
+      <c r="B394" t="str">
+        <v>2:46</v>
+      </c>
+      <c r="C394" t="str">
+        <v>Egzod &amp; Anna Yvette - My City [NCS Release]</v>
+      </c>
+      <c r="D394" t="str">
+        <v>3.2M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>394</v>
+      </c>
+      <c r="B395" t="str">
+        <v>4:54</v>
+      </c>
+      <c r="C395" t="str">
+        <v>Catas &amp; Kasger - Blueshift [NCS Release]</v>
+      </c>
+      <c r="D395" t="str">
+        <v>3M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>395</v>
+      </c>
+      <c r="B396" t="str">
+        <v>3:17</v>
+      </c>
+      <c r="C396" t="str">
+        <v>JPB - Levitate (feat. Joe Erickson) [NCS Release]</v>
+      </c>
+      <c r="D396" t="str">
+        <v>3M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>396</v>
+      </c>
+      <c r="B397" t="str">
+        <v>4:53</v>
+      </c>
+      <c r="C397" t="str">
+        <v>Housewell &amp; Side-B feat. Karl VanBurkleo - Drifting Away[NCS Release]</v>
+      </c>
+      <c r="D397" t="str">
+        <v>3M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>397</v>
+      </c>
+      <c r="B398" t="str">
+        <v>4:31</v>
+      </c>
+      <c r="C398" t="str">
+        <v>Phantom Sage - Away (feat. Byndy) [NCS Release]</v>
+      </c>
+      <c r="D398" t="str">
+        <v>3M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>398</v>
+      </c>
+      <c r="B399" t="str">
+        <v>3:02</v>
+      </c>
+      <c r="C399" t="str">
+        <v>Elliot Berger - The Nameless [NCS Release]</v>
+      </c>
+      <c r="D399" t="str">
+        <v>2.9M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>399</v>
+      </c>
+      <c r="B400" t="str">
+        <v>2:43</v>
+      </c>
+      <c r="C400" t="str">
+        <v>Unknown Brain &amp; Spce CadeX - Holding You (feat. Max Landry) [NCS Release]</v>
+      </c>
+      <c r="D400" t="str">
+        <v>3M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>400</v>
+      </c>
+      <c r="B401" t="str">
+        <v>3:35</v>
+      </c>
+      <c r="C401" t="str">
+        <v>bvd kult - Made Of Something (feat. Will Heggadon) [NCS Release]</v>
+      </c>
+      <c r="D401" t="str">
+        <v>2.9M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>401</v>
+      </c>
+      <c r="B402" t="str">
+        <v>4:23</v>
+      </c>
+      <c r="C402" t="str">
+        <v>Krys Talk - Fly Away (Mendum Remix) [NCS Release]</v>
+      </c>
+      <c r="D402" t="str">
+        <v>2.9M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>402</v>
+      </c>
+      <c r="B403" t="str">
+        <v>3:10</v>
+      </c>
+      <c r="C403" t="str">
+        <v>Michael White - Angel’s Anthem [NCS Release]</v>
+      </c>
+      <c r="D403" t="str">
+        <v>3M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>403</v>
+      </c>
+      <c r="B404" t="str">
+        <v>3:12</v>
+      </c>
+      <c r="C404" t="str">
+        <v>Main Reaktor - Recession [NCS Release]</v>
+      </c>
+      <c r="D404" t="str">
+        <v>2.9M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>404</v>
+      </c>
+      <c r="B405" t="str">
+        <v>3:18</v>
+      </c>
+      <c r="C405" t="str">
+        <v>Main Reaktor - Awakening [NCS Release]</v>
+      </c>
+      <c r="D405" t="str">
+        <v>2.9M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>405</v>
+      </c>
+      <c r="B406" t="str">
+        <v>3:36</v>
+      </c>
+      <c r="C406" t="str">
+        <v>Jordan Schor &amp; Harley Bird - Home [NCS Release]</v>
+      </c>
+      <c r="D406" t="str">
+        <v>3M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>406</v>
+      </c>
+      <c r="B407" t="str">
+        <v>3:08</v>
+      </c>
+      <c r="C407" t="str">
+        <v>Y&amp;V - Falling Up [NCS Release]</v>
+      </c>
+      <c r="D407" t="str">
+        <v>2.8M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>407</v>
+      </c>
+      <c r="B408" t="str">
+        <v>5:06</v>
+      </c>
+      <c r="C408" t="str">
+        <v>Matthew Blake feat. Katie Boyle - Saved Me Now [NCS Release]</v>
+      </c>
+      <c r="D408" t="str">
+        <v>2.9M views • 9 years ago</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>408</v>
+      </c>
+      <c r="B409" t="str">
+        <v>3:24</v>
+      </c>
+      <c r="C409" t="str">
+        <v>CØDE - We're Invincible (feat. Joseph Feinstein) [NCS Release]</v>
+      </c>
+      <c r="D409" t="str">
+        <v>2.8M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>409</v>
+      </c>
+      <c r="B410" t="str">
+        <v>2:53</v>
+      </c>
+      <c r="C410" t="str">
+        <v>Disfigure - Losing Sleep (feat. Tara Louise) [NCS Release]</v>
+      </c>
+      <c r="D410" t="str">
+        <v>2.8M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>410</v>
+      </c>
+      <c r="B411" t="str">
+        <v>2:51</v>
+      </c>
+      <c r="C411" t="str">
+        <v>Lostboy &amp; Slashtaq - Elysium [NCS Release]</v>
+      </c>
+      <c r="D411" t="str">
+        <v>2.8M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>411</v>
+      </c>
+      <c r="B412" t="str">
+        <v>3:00</v>
+      </c>
+      <c r="C412" t="str">
+        <v>NIVIRO - So Funky [NCS Release]</v>
+      </c>
+      <c r="D412" t="str">
+        <v>2.9M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>412</v>
+      </c>
+      <c r="B413" t="str">
+        <v>3:06</v>
+      </c>
+      <c r="C413" t="str">
+        <v>Anikdote &amp; Culture Code - Don’t Let It Go (feat. Brado Sanz) [NCS Release]</v>
+      </c>
+      <c r="D413" t="str">
+        <v>2.8M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>413</v>
+      </c>
+      <c r="B414" t="str">
+        <v>3:20</v>
+      </c>
+      <c r="C414" t="str">
+        <v>3rd Prototype &amp; Emdi - House [NCS Release]</v>
+      </c>
+      <c r="D414" t="str">
+        <v>2.9M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>414</v>
+      </c>
+      <c r="B415" t="str">
+        <v>3:04</v>
+      </c>
+      <c r="C415" t="str">
+        <v>Kasger - Cover It Up [NCS Release]</v>
+      </c>
+      <c r="D415" t="str">
+        <v>2.7M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>415</v>
+      </c>
+      <c r="B416" t="str">
+        <v>4:09</v>
+      </c>
+      <c r="C416" t="str">
+        <v>K.Safo &amp; Alex Skrindo - Future Vibes feat. Stewart Wallace (Uplink Remix) [NCS Release]</v>
+      </c>
+      <c r="D416" t="str">
+        <v>2.7M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>416</v>
+      </c>
+      <c r="B417" t="str">
+        <v>4:21</v>
+      </c>
+      <c r="C417" t="str">
+        <v>Robert Chacon - Redshift (feat. Robertha Sepulveda) [NCS Release]</v>
+      </c>
+      <c r="D417" t="str">
+        <v>2.7M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>417</v>
+      </c>
+      <c r="B418" t="str">
+        <v>2:39</v>
+      </c>
+      <c r="C418" t="str">
+        <v>Raven &amp; Kreyn - Get This Party [NCS Release]</v>
+      </c>
+      <c r="D418" t="str">
+        <v>2.7M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>418</v>
+      </c>
+      <c r="B419" t="str">
+        <v>4:55</v>
+      </c>
+      <c r="C419" t="str">
+        <v>Phantom Sage - Our Lives Past (feat. Emily Stiles) [NCS Release]</v>
+      </c>
+      <c r="D419" t="str">
+        <v>2.7M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>419</v>
+      </c>
+      <c r="B420" t="str">
+        <v>3:09</v>
+      </c>
+      <c r="C420" t="str">
+        <v>ElementD - Fallin' (feat. Micah Martin) [NCS Release]</v>
+      </c>
+      <c r="D420" t="str">
+        <v>2.7M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>420</v>
+      </c>
+      <c r="B421" t="str">
+        <v>3:54</v>
+      </c>
+      <c r="C421" t="str">
+        <v>Exert - Losing You (feat. Janethan) [NCS Release]</v>
+      </c>
+      <c r="D421" t="str">
+        <v>2.6M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>421</v>
+      </c>
+      <c r="B422" t="str">
+        <v>2:44</v>
+      </c>
+      <c r="C422" t="str">
+        <v>RetroVision - Cake [NCS Release]</v>
+      </c>
+      <c r="D422" t="str">
+        <v>2.7M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>422</v>
+      </c>
+      <c r="B423" t="str">
+        <v>3:49</v>
+      </c>
+      <c r="C423" t="str">
+        <v>Nurko &amp; Last Heroes - Promise Me (feat. Jessie Chambers) [NCS Release]</v>
+      </c>
+      <c r="D423" t="str">
+        <v>2.6M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>423</v>
+      </c>
+      <c r="B424" t="str">
+        <v>4:33</v>
+      </c>
+      <c r="C424" t="str">
+        <v>Killabyte - Our Story [NCS Release]</v>
+      </c>
+      <c r="D424" t="str">
+        <v>2.6M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>424</v>
+      </c>
+      <c r="B425" t="str">
+        <v>3:14</v>
+      </c>
+      <c r="C425" t="str">
+        <v>Axollo - Burn It [NCS Release]</v>
+      </c>
+      <c r="D425" t="str">
+        <v>2.7M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>425</v>
+      </c>
+      <c r="B426" t="str">
+        <v>3:34</v>
+      </c>
+      <c r="C426" t="str">
+        <v>Electro Light feat. Iain Mannix - Clearly (Venemy Remix) [NCS Release]</v>
+      </c>
+      <c r="D426" t="str">
+        <v>2.5M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>426</v>
+      </c>
+      <c r="B427" t="str">
+        <v>3:22</v>
+      </c>
+      <c r="C427" t="str">
+        <v>Krakn - Aurora [NCS Release]</v>
+      </c>
+      <c r="D427" t="str">
+        <v>2.5M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>427</v>
+      </c>
+      <c r="B428" t="str">
+        <v>2:41</v>
+      </c>
+      <c r="C428" t="str">
+        <v>Our Psych - Purge [NCS Release]</v>
+      </c>
+      <c r="D428" t="str">
+        <v>2.5M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>428</v>
+      </c>
+      <c r="B429" t="str">
+        <v>3:37</v>
+      </c>
+      <c r="C429" t="str">
+        <v>Phantom Sage - Hollow [NCS Release]</v>
+      </c>
+      <c r="D429" t="str">
+        <v>2.5M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>429</v>
+      </c>
+      <c r="B430" t="str">
+        <v>4:39</v>
+      </c>
+      <c r="C430" t="str">
+        <v>Phantom Sage - Kingdom (feat. Miss Lina) [NCS Release]</v>
+      </c>
+      <c r="D430" t="str">
+        <v>2.5M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>430</v>
+      </c>
+      <c r="B431" t="str">
+        <v>3:11</v>
+      </c>
+      <c r="C431" t="str">
+        <v>3rd Prototype - Together [NCS Release]</v>
+      </c>
+      <c r="D431" t="str">
+        <v>2.5M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>431</v>
+      </c>
+      <c r="B432" t="str">
+        <v>3:32</v>
+      </c>
+      <c r="C432" t="str">
+        <v>Killercats - What I Said (feat. Alex Skrindo) [NCS Release]</v>
+      </c>
+      <c r="D432" t="str">
+        <v>2.5M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>432</v>
+      </c>
+      <c r="B433" t="str">
+        <v>3:30</v>
+      </c>
+      <c r="C433" t="str">
+        <v>LarsM &amp; Side-B ft. Aloma Steele - Over (Dropouts Remix) [NCS Release]</v>
+      </c>
+      <c r="D433" t="str">
+        <v>2.4M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>433</v>
+      </c>
+      <c r="B434" t="str">
+        <v>3:22</v>
+      </c>
+      <c r="C434" t="str">
+        <v>Sinner's Heist - Streetlight People (feat. Harley Bird) [NCS Release]</v>
+      </c>
+      <c r="D434" t="str">
+        <v>2.5M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>434</v>
+      </c>
+      <c r="B435" t="str">
+        <v>3:33</v>
+      </c>
+      <c r="C435" t="str">
+        <v>T-Mass &amp; Jaxxtone - Gave To Me [NCS Release]</v>
+      </c>
+      <c r="D435" t="str">
+        <v>2.4M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>435</v>
+      </c>
+      <c r="B436" t="str">
+        <v>3:49</v>
+      </c>
+      <c r="C436" t="str">
+        <v>Arcien - Elevate [NCS Release]</v>
+      </c>
+      <c r="D436" t="str">
+        <v>2.4M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>436</v>
+      </c>
+      <c r="B437" t="str">
+        <v>3:45</v>
+      </c>
+      <c r="C437" t="str">
+        <v>Main Reaktor - Alone [NCS Release]</v>
+      </c>
+      <c r="D437" t="str">
+        <v>2.4M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>437</v>
+      </c>
+      <c r="B438" t="str">
+        <v>4:26</v>
+      </c>
+      <c r="C438" t="str">
+        <v>T &amp; Sugah - Cast Away ft. Ayve [NCS Release]</v>
+      </c>
+      <c r="D438" t="str">
+        <v>2.4M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>438</v>
+      </c>
+      <c r="B439" t="str">
+        <v>2:47</v>
+      </c>
+      <c r="C439" t="str">
+        <v>T-Mass - Bow and Arrow [NCS Release]</v>
+      </c>
+      <c r="D439" t="str">
+        <v>2.3M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>439</v>
+      </c>
+      <c r="B440" t="str">
+        <v>3:52</v>
+      </c>
+      <c r="C440" t="str">
+        <v>Rameses B - Story [NCS Release]</v>
+      </c>
+      <c r="D440" t="str">
+        <v>2.3M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>440</v>
+      </c>
+      <c r="B441" t="str">
+        <v>3:38</v>
+      </c>
+      <c r="C441" t="str">
+        <v>Morley &amp; Speo - Hope [NCS Release]</v>
+      </c>
+      <c r="D441" t="str">
+        <v>2.3M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>441</v>
+      </c>
+      <c r="B442" t="str">
+        <v>2:55</v>
+      </c>
+      <c r="C442" t="str">
+        <v>Unknown Brain - Saviour (feat. Chris Linton) [NCS Official Video]</v>
+      </c>
+      <c r="D442" t="str">
+        <v>2.3M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>442</v>
+      </c>
+      <c r="B443" t="str">
+        <v>2:38</v>
+      </c>
+      <c r="C443" t="str">
+        <v>Electro Light ft. Kathryn MacLean - The Edge [NCS Release]</v>
+      </c>
+      <c r="D443" t="str">
+        <v>2.3M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>443</v>
+      </c>
+      <c r="B444" t="str">
+        <v>3:05</v>
+      </c>
+      <c r="C444" t="str">
+        <v>Uplink - Still Need You (feat. AWR) [NCS Release]</v>
+      </c>
+      <c r="D444" t="str">
+        <v>2.2M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>444</v>
+      </c>
+      <c r="B445" t="str">
+        <v>4:15</v>
+      </c>
+      <c r="C445" t="str">
+        <v>Siren - Run Away [NCS Release]</v>
+      </c>
+      <c r="D445" t="str">
+        <v>2.2M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>445</v>
+      </c>
+      <c r="B446" t="str">
+        <v>3:26</v>
+      </c>
+      <c r="C446" t="str">
+        <v>Egzod &amp; Tanjent - Universe [NCS Release]</v>
+      </c>
+      <c r="D446" t="str">
+        <v>2.2M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>446</v>
+      </c>
+      <c r="B447" t="str">
+        <v>4:29</v>
+      </c>
+      <c r="C447" t="str">
+        <v>Floatinurboat x Chris Linton - Holding On [NCS Release]</v>
+      </c>
+      <c r="D447" t="str">
+        <v>2.3M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>447</v>
+      </c>
+      <c r="B448" t="str">
+        <v>4:00</v>
+      </c>
+      <c r="C448" t="str">
+        <v>Au5 &amp; Last Heroes - Lush (feat. Holly Drummond) [NCS Release]</v>
+      </c>
+      <c r="D448" t="str">
+        <v>2.2M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>448</v>
+      </c>
+      <c r="B449" t="str">
+        <v>3:20</v>
+      </c>
+      <c r="C449" t="str">
+        <v>Inukshuk - Too Far Gone [NCS Release]</v>
+      </c>
+      <c r="D449" t="str">
+        <v>2.2M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>449</v>
+      </c>
+      <c r="B450" t="str">
+        <v>3:04</v>
+      </c>
+      <c r="C450" t="str">
+        <v>Cormak - Flavors [NCS Release]</v>
+      </c>
+      <c r="D450" t="str">
+        <v>2.1M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>450</v>
+      </c>
+      <c r="B451" t="str">
+        <v>3:05</v>
+      </c>
+      <c r="C451" t="str">
+        <v>Unison - Reality [NCS Release]</v>
+      </c>
+      <c r="D451" t="str">
+        <v>2.2M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>451</v>
+      </c>
+      <c r="B452" t="str">
+        <v>3:02</v>
+      </c>
+      <c r="C452" t="str">
+        <v>Electro Light feat. Sidekicks - Hold On To Me [NCS Release]</v>
+      </c>
+      <c r="D452" t="str">
+        <v>2.1M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>452</v>
+      </c>
+      <c r="B453" t="str">
+        <v>3:58</v>
+      </c>
+      <c r="C453" t="str">
+        <v>Vena Cava - Handsonic (feat. Jordan Virelli) [NCS Release]</v>
+      </c>
+      <c r="D453" t="str">
+        <v>2.1M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>453</v>
+      </c>
+      <c r="B454" t="str">
+        <v>16:01</v>
+      </c>
+      <c r="C454" t="str">
+        <v>NCS is Love, NCS is Life [Album Mix]</v>
+      </c>
+      <c r="D454" t="str">
+        <v>2.1M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>454</v>
+      </c>
+      <c r="B455" t="str">
+        <v>3:54</v>
+      </c>
+      <c r="C455" t="str">
+        <v>Rameses B - There For You [NCS Release]</v>
+      </c>
+      <c r="D455" t="str">
+        <v>2.1M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>455</v>
+      </c>
+      <c r="B456" t="str">
+        <v>3:06</v>
+      </c>
+      <c r="C456" t="str">
+        <v>Michael White - Venus (feat. MYLK) [NCS Release]</v>
+      </c>
+      <c r="D456" t="str">
+        <v>2.1M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>456</v>
+      </c>
+      <c r="B457" t="str">
+        <v>4:28</v>
+      </c>
+      <c r="C457" t="str">
+        <v>Luke Carpenter &amp; John Ross - California (feat. Corey Saxon) [NCS Release]</v>
+      </c>
+      <c r="D457" t="str">
+        <v>2.1M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>457</v>
+      </c>
+      <c r="B458" t="str">
+        <v>3:00</v>
+      </c>
+      <c r="C458" t="str">
+        <v>Weero - Mates [NCS Release]</v>
+      </c>
+      <c r="D458" t="str">
+        <v>2.1M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>458</v>
+      </c>
+      <c r="B459" t="str">
+        <v>3:51</v>
+      </c>
+      <c r="C459" t="str">
+        <v>Cadmium - Ghost (feat. Eli Raain) [NCS Release]</v>
+      </c>
+      <c r="D459" t="str">
+        <v>2.1M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>459</v>
+      </c>
+      <c r="B460" t="str">
+        <v>3:05</v>
+      </c>
+      <c r="C460" t="str">
+        <v>Defqwop - Say The Word (feat. The Ruins) [NCS Release]</v>
+      </c>
+      <c r="D460" t="str">
+        <v>2.1M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>460</v>
+      </c>
+      <c r="B461" t="str">
+        <v>2:28</v>
+      </c>
+      <c r="C461" t="str">
+        <v>TARI &amp; Yix - Bliss [NCS Release]</v>
+      </c>
+      <c r="D461" t="str">
+        <v>2.1M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>461</v>
+      </c>
+      <c r="B462" t="str">
+        <v>3:35</v>
+      </c>
+      <c r="C462" t="str">
+        <v>Beatcore &amp; Ashley Apollodor - Just Stay [NCS Release]</v>
+      </c>
+      <c r="D462" t="str">
+        <v>2.1M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>462</v>
+      </c>
+      <c r="B463" t="str">
+        <v>3:30</v>
+      </c>
+      <c r="C463" t="str">
+        <v>Leowi - Hollywood (feat. joegarratt) [NCS Release]</v>
+      </c>
+      <c r="D463" t="str">
+        <v>2.1M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v>463</v>
+      </c>
+      <c r="B464" t="str">
+        <v>3:46</v>
+      </c>
+      <c r="C464" t="str">
+        <v>Syntact - Shallow [NCS Release]</v>
+      </c>
+      <c r="D464" t="str">
+        <v>2M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>464</v>
+      </c>
+      <c r="B465" t="str">
+        <v>3:28</v>
+      </c>
+      <c r="C465" t="str">
+        <v>Mekanism - Green Lights [NCS Release]</v>
+      </c>
+      <c r="D465" t="str">
+        <v>2M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>465</v>
+      </c>
+      <c r="B466" t="str">
+        <v>3:12</v>
+      </c>
+      <c r="C466" t="str">
+        <v>Raven &amp; Kreyn x Moji x Illusion - Dream Forever [NCS Release]</v>
+      </c>
+      <c r="D466" t="str">
+        <v>2M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>466</v>
+      </c>
+      <c r="B467" t="str">
+        <v>4:07</v>
+      </c>
+      <c r="C467" t="str">
+        <v>Icehunt - Hover (feat. Helen Tess) [NCS Release]</v>
+      </c>
+      <c r="D467" t="str">
+        <v>2M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>467</v>
+      </c>
+      <c r="B468" t="str">
+        <v>3:16</v>
+      </c>
+      <c r="C468" t="str">
+        <v>Uplink - Crying Over You [NCS Release]</v>
+      </c>
+      <c r="D468" t="str">
+        <v>2M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>468</v>
+      </c>
+      <c r="B469" t="str">
+        <v>3:30</v>
+      </c>
+      <c r="C469" t="str">
+        <v>Holly x Drivvin - Til The End [NCS Release]</v>
+      </c>
+      <c r="D469" t="str">
+        <v>2M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>469</v>
+      </c>
+      <c r="B470" t="str">
+        <v>2:45</v>
+      </c>
+      <c r="C470" t="str">
+        <v>Egzod - Paper Crowns (feat. Leo The Kind) [NCS Release]</v>
+      </c>
+      <c r="D470" t="str">
+        <v>2M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>470</v>
+      </c>
+      <c r="B471" t="str">
+        <v>2:54</v>
+      </c>
+      <c r="C471" t="str">
+        <v>Axollo - Moonstruck [NCS Release]</v>
+      </c>
+      <c r="D471" t="str">
+        <v>2M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>471</v>
+      </c>
+      <c r="B472" t="str">
+        <v>2:46</v>
+      </c>
+      <c r="C472" t="str">
+        <v>Rob Gasser - Happy [NCS Release]</v>
+      </c>
+      <c r="D472" t="str">
+        <v>1.9M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v>472</v>
+      </c>
+      <c r="B473" t="str">
+        <v>2:20</v>
+      </c>
+      <c r="C473" t="str">
+        <v>Zookeepers &amp; Heuse - Mercury [NCS Release]</v>
+      </c>
+      <c r="D473" t="str">
+        <v>1.9M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v>473</v>
+      </c>
+      <c r="B474" t="str">
+        <v>4:09</v>
+      </c>
+      <c r="C474" t="str">
+        <v>Unknown Brain - MADAFAKA (feat. Marvin Divine)</v>
+      </c>
+      <c r="D474" t="str">
+        <v>1.9M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v>474</v>
+      </c>
+      <c r="B475" t="str">
+        <v>2:41</v>
+      </c>
+      <c r="C475" t="str">
+        <v>Krakn - Light [NCS Release]</v>
+      </c>
+      <c r="D475" t="str">
+        <v>1.9M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>475</v>
+      </c>
+      <c r="B476" t="str">
+        <v>3:59</v>
+      </c>
+      <c r="C476" t="str">
+        <v>bvd kult - VIP [NCS Release]</v>
+      </c>
+      <c r="D476" t="str">
+        <v>1.9M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>476</v>
+      </c>
+      <c r="B477" t="str">
+        <v>3:22</v>
+      </c>
+      <c r="C477" t="str">
+        <v>Michael White x Deflo - About To Go Down [NCS Release]</v>
+      </c>
+      <c r="D477" t="str">
+        <v>1.8M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v>477</v>
+      </c>
+      <c r="B478" t="str">
+        <v>2:41</v>
+      </c>
+      <c r="C478" t="str">
+        <v>Unknown Brain - Saviour (feat. Chris Linton) [NCS Release]</v>
+      </c>
+      <c r="D478" t="str">
+        <v>1.8M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>478</v>
+      </c>
+      <c r="B479" t="str">
+        <v>3:11</v>
+      </c>
+      <c r="C479" t="str">
+        <v>Inukshuk - The Long Road Home [NCS Release]</v>
+      </c>
+      <c r="D479" t="str">
+        <v>1.8M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>479</v>
+      </c>
+      <c r="B480" t="str">
+        <v>3:30</v>
+      </c>
+      <c r="C480" t="str">
+        <v>Inukshuk - Happy Accidents (Live Performance) [NCS Release]</v>
+      </c>
+      <c r="D480" t="str">
+        <v>1.7M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v>480</v>
+      </c>
+      <c r="B481" t="str">
+        <v>3:10</v>
+      </c>
+      <c r="C481" t="str">
+        <v>The Lifted - Crash N Burn (feat. Man 3 Faces) [NCS Release]</v>
+      </c>
+      <c r="D481" t="str">
+        <v>1.7M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>481</v>
+      </c>
+      <c r="B482" t="str">
+        <v>3:07</v>
+      </c>
+      <c r="C482" t="str">
+        <v>Main Reaktor - Salvation [NCS Release]</v>
+      </c>
+      <c r="D482" t="str">
+        <v>1.7M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>482</v>
+      </c>
+      <c r="B483" t="str">
+        <v>3:42</v>
+      </c>
+      <c r="C483" t="str">
+        <v>Curbi - Dime [NCS Release]</v>
+      </c>
+      <c r="D483" t="str">
+        <v>1.7M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v>483</v>
+      </c>
+      <c r="B484" t="str">
+        <v>4:35</v>
+      </c>
+      <c r="C484" t="str">
+        <v>Aero Chord &amp; Anuka - Incomplete (Muzzy Remix) [NCS Release]</v>
+      </c>
+      <c r="D484" t="str">
+        <v>1.7M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>484</v>
+      </c>
+      <c r="B485" t="str">
+        <v>3:33</v>
+      </c>
+      <c r="C485" t="str">
+        <v>Audioscribe - Skyline [NCS Release]</v>
+      </c>
+      <c r="D485" t="str">
+        <v>1.7M views • 9 years ago</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>485</v>
+      </c>
+      <c r="B486" t="str">
+        <v>3:32</v>
+      </c>
+      <c r="C486" t="str">
+        <v>Halcyon - December (feat. Gian) [NCS Release]</v>
+      </c>
+      <c r="D486" t="str">
+        <v>1.6M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v>486</v>
+      </c>
+      <c r="B487" t="str">
+        <v>2:50</v>
+      </c>
+      <c r="C487" t="str">
+        <v>Ship Wrek &amp; The Highrollers - Waiting[NCS Release]</v>
+      </c>
+      <c r="D487" t="str">
+        <v>1.6M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>487</v>
+      </c>
+      <c r="B488" t="str">
+        <v>3:37</v>
+      </c>
+      <c r="C488" t="str">
+        <v>Umpire - Collins Ave. [NCS Release]</v>
+      </c>
+      <c r="D488" t="str">
+        <v>1.6M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>488</v>
+      </c>
+      <c r="B489" t="str">
+        <v>4:09</v>
+      </c>
+      <c r="C489" t="str">
+        <v>Venemy Ft. Emily Jane - Heartbeat [NCS Release]</v>
+      </c>
+      <c r="D489" t="str">
+        <v>1.6M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v>489</v>
+      </c>
+      <c r="B490" t="str">
+        <v>4:17</v>
+      </c>
+      <c r="C490" t="str">
+        <v>Aero Chord &amp; Anuka - Incomplete (T-Mass Remix) [NCS Release]</v>
+      </c>
+      <c r="D490" t="str">
+        <v>1.6M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>490</v>
+      </c>
+      <c r="B491" t="str">
+        <v>4:08</v>
+      </c>
+      <c r="C491" t="str">
+        <v>Kozah - Travel Again [NCS Release]</v>
+      </c>
+      <c r="D491" t="str">
+        <v>1.6M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>491</v>
+      </c>
+      <c r="B492" t="str">
+        <v>3:43</v>
+      </c>
+      <c r="C492" t="str">
+        <v>Brandon Jonak &amp; Pep.B - Where Do I Go (feat. Ezra James) [NCS Release]</v>
+      </c>
+      <c r="D492" t="str">
+        <v>1.6M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>492</v>
+      </c>
+      <c r="B493" t="str">
+        <v>4:34</v>
+      </c>
+      <c r="C493" t="str">
+        <v>Vena Cava - Noire [NCS Release]</v>
+      </c>
+      <c r="D493" t="str">
+        <v>1.5M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>493</v>
+      </c>
+      <c r="B494" t="str">
+        <v>3:29</v>
+      </c>
+      <c r="C494" t="str">
+        <v>Four Eyes - Psycho [NCS Release]</v>
+      </c>
+      <c r="D494" t="str">
+        <v>1.5M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>494</v>
+      </c>
+      <c r="B495" t="str">
+        <v>3:29</v>
+      </c>
+      <c r="C495" t="str">
+        <v>T-Mass - Up In Flumes [NCS Release]</v>
+      </c>
+      <c r="D495" t="str">
+        <v>1.5M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>495</v>
+      </c>
+      <c r="B496" t="str">
+        <v>19:48</v>
+      </c>
+      <c r="C496" t="str">
+        <v>NCS: Colors [Album Mix]</v>
+      </c>
+      <c r="D496" t="str">
+        <v>1.4M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v>496</v>
+      </c>
+      <c r="B497" t="str">
+        <v>4:27</v>
+      </c>
+      <c r="C497" t="str">
+        <v>The Void - Lost Language [NCS Release]</v>
+      </c>
+      <c r="D497" t="str">
+        <v>1.4M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>497</v>
+      </c>
+      <c r="B498" t="str">
+        <v>3:18</v>
+      </c>
+      <c r="C498" t="str">
+        <v>Egzod - Paper Crowns ft. Leo The Kind (Nurko Remix) [NCS Release]</v>
+      </c>
+      <c r="D498" t="str">
+        <v>1.5M views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>498</v>
+      </c>
+      <c r="B499" t="str">
+        <v>4:18</v>
+      </c>
+      <c r="C499" t="str">
+        <v>Aero Chord &amp; Anuka - Incomplete (Lyric Video) [NCS Release]</v>
+      </c>
+      <c r="D499" t="str">
+        <v>1.4M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>499</v>
+      </c>
+      <c r="B500" t="str">
+        <v>3:45</v>
+      </c>
+      <c r="C500" t="str">
+        <v>LarsM &amp; Side-B ft. Aloma Steele - Over [NCS Release]</v>
+      </c>
+      <c r="D500" t="str">
+        <v>1.4M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>500</v>
+      </c>
+      <c r="B501" t="str">
+        <v>5:10</v>
+      </c>
+      <c r="C501" t="str">
+        <v>Disco's Over - Reflections (feat. Lokka Vox) [NCS Release]</v>
+      </c>
+      <c r="D501" t="str">
+        <v>1.4M views • 7 years ago</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>501</v>
+      </c>
+      <c r="B502" t="str">
+        <v>2:46</v>
+      </c>
+      <c r="C502" t="str">
+        <v>Disco’s Over - TSU [NCS Release]</v>
+      </c>
+      <c r="D502" t="str">
+        <v>1.3M views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>502</v>
+      </c>
+      <c r="B503" t="str">
+        <v>3:20</v>
+      </c>
+      <c r="C503" t="str">
+        <v>Geoxor - Higher [NCS Release]</v>
+      </c>
+      <c r="D503" t="str">
+        <v>1.3M views • 6 years ago</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>503</v>
+      </c>
+      <c r="B504" t="str">
+        <v>3:50</v>
+      </c>
+      <c r="C504" t="str">
+        <v>Electro-Light - Night Shines (feat. Nathan Brumley) [NCS Uplifting Release]</v>
+      </c>
+      <c r="D504" t="str">
+        <v>1.1M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>504</v>
+      </c>
+      <c r="B505" t="str">
+        <v>4:30</v>
+      </c>
+      <c r="C505" t="str">
+        <v>Ramzoid - Electron [NCS Release]</v>
+      </c>
+      <c r="D505" t="str">
+        <v>1M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>505</v>
+      </c>
+      <c r="B506" t="str">
+        <v>4:25</v>
+      </c>
+      <c r="C506" t="str">
+        <v>RedMoon feat. Jonny Rose - Only Us [NCS Uplifting Release]</v>
+      </c>
+      <c r="D506" t="str">
+        <v>1M views • 8 years ago</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>506</v>
+      </c>
+      <c r="B507" t="str">
+        <v>3:41</v>
+      </c>
+      <c r="C507" t="str">
+        <v>Spektrem - Miles Above You</v>
+      </c>
+      <c r="D507" t="str">
+        <v>788K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>507</v>
+      </c>
+      <c r="B508" t="str">
+        <v>2:40</v>
+      </c>
+      <c r="C508" t="str">
+        <v>Raven &amp; Kreyn - So Happy</v>
+      </c>
+      <c r="D508" t="str">
+        <v>228K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>508</v>
+      </c>
+      <c r="B509" t="str">
+        <v>3:46</v>
+      </c>
+      <c r="C509" t="str">
+        <v>Inova - Disowned</v>
+      </c>
+      <c r="D509" t="str">
+        <v>290K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>509</v>
+      </c>
+      <c r="B510" t="str">
+        <v>2:51</v>
+      </c>
+      <c r="C510" t="str">
+        <v>RetroVision - Puzzle VIP</v>
+      </c>
+      <c r="D510" t="str">
+        <v>158K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>510</v>
+      </c>
+      <c r="B511" t="str">
+        <v>4:31</v>
+      </c>
+      <c r="C511" t="str">
+        <v>DJ Assassin - Frag Out</v>
+      </c>
+      <c r="D511" t="str">
+        <v>101K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>511</v>
+      </c>
+      <c r="B512" t="str">
+        <v>3:25</v>
+      </c>
+      <c r="C512" t="str">
+        <v>Avatar The Last Airbender theme (Jim Yosef remix)</v>
+      </c>
+      <c r="D512" t="str">
+        <v>69K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>512</v>
+      </c>
+      <c r="B513" t="str">
+        <v>3:06</v>
+      </c>
+      <c r="C513" t="str">
+        <v>Cartoon - Your Stories (feat. Koit Toome)</v>
+      </c>
+      <c r="D513" t="str">
+        <v>49K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>513</v>
+      </c>
+      <c r="B514" t="str">
+        <v>3:24</v>
+      </c>
+      <c r="C514" t="str">
+        <v>NIVIRO - The Return</v>
+      </c>
+      <c r="D514" t="str">
+        <v>41K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>514</v>
+      </c>
+      <c r="B515" t="str">
+        <v>3:00</v>
+      </c>
+      <c r="C515" t="str">
+        <v>Electro Light - Discovery</v>
+      </c>
+      <c r="D515" t="str">
+        <v>42K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>515</v>
+      </c>
+      <c r="B516" t="str">
+        <v>2:37</v>
+      </c>
+      <c r="C516" t="str">
+        <v>TULE - Lost</v>
+      </c>
+      <c r="D516" t="str">
+        <v>37K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>516</v>
+      </c>
+      <c r="B517" t="str">
+        <v>3:06</v>
+      </c>
+      <c r="C517" t="str">
+        <v>RetroVision - Campfire</v>
+      </c>
+      <c r="D517" t="str">
+        <v>33K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>517</v>
+      </c>
+      <c r="B518" t="str">
+        <v>3:26</v>
+      </c>
+      <c r="C518" t="str">
+        <v>Ship Wrek - Fools Gold (feat. Essy)</v>
+      </c>
+      <c r="D518" t="str">
+        <v>27K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>518</v>
+      </c>
+      <c r="B519" t="str">
+        <v>3:50</v>
+      </c>
+      <c r="C519" t="str">
+        <v>Culture Code - Heaven (feat. Johnning)</v>
+      </c>
+      <c r="D519" t="str">
+        <v>26K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>519</v>
+      </c>
+      <c r="B520" t="str">
+        <v>3:39</v>
+      </c>
+      <c r="C520" t="str">
+        <v>ElementS - Giving In (feat. Mees Van Den Berg)</v>
+      </c>
+      <c r="D520" t="str">
+        <v>23K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>520</v>
+      </c>
+      <c r="B521" t="str">
+        <v>3:01</v>
+      </c>
+      <c r="C521" t="str">
+        <v>Unknown Brain - Roots</v>
+      </c>
+      <c r="D521" t="str">
+        <v>22K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>521</v>
+      </c>
+      <c r="B522" t="str">
+        <v>3:23</v>
+      </c>
+      <c r="C522" t="str">
+        <v>Elektronomia - Disco Boy</v>
+      </c>
+      <c r="D522" t="str">
+        <v>22K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>522</v>
+      </c>
+      <c r="B523" t="str">
+        <v>4:06</v>
+      </c>
+      <c r="C523" t="str">
+        <v>Tobu - Melomania</v>
+      </c>
+      <c r="D523" t="str">
+        <v>22K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>523</v>
+      </c>
+      <c r="B524" t="str">
+        <v>3:28</v>
+      </c>
+      <c r="C524" t="str">
+        <v>K-391 - Journey</v>
+      </c>
+      <c r="D524" t="str">
+        <v>21K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>524</v>
+      </c>
+      <c r="B525" t="str">
+        <v>3:36</v>
+      </c>
+      <c r="C525" t="str">
+        <v>Lost Sky - Dreams</v>
+      </c>
+      <c r="D525" t="str">
+        <v>19K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>525</v>
+      </c>
+      <c r="B526" t="str">
+        <v>3:11</v>
+      </c>
+      <c r="C526" t="str">
+        <v>Michael White - Angels Anthem</v>
+      </c>
+      <c r="D526" t="str">
+        <v>17K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>526</v>
+      </c>
+      <c r="B527" t="str">
+        <v>2:43</v>
+      </c>
+      <c r="C527" t="str">
+        <v>Unknown Brain &amp; Space CadeX - Holding You</v>
+      </c>
+      <c r="D527" t="str">
+        <v>16K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>527</v>
+      </c>
+      <c r="B528" t="str">
+        <v>3:05</v>
+      </c>
+      <c r="C528" t="str">
+        <v>Domastic - Forever</v>
+      </c>
+      <c r="D528" t="str">
+        <v>16K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>528</v>
+      </c>
+      <c r="B529" t="str">
+        <v>4:26</v>
+      </c>
+      <c r="C529" t="str">
+        <v>Elektronomia - United</v>
+      </c>
+      <c r="D529" t="str">
+        <v>16K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>529</v>
+      </c>
+      <c r="B530" t="str">
+        <v>3:14</v>
+      </c>
+      <c r="C530" t="str">
+        <v>Kovan &amp; Alex Skrindo - Into The Wild</v>
+      </c>
+      <c r="D530" t="str">
+        <v>15K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>530</v>
+      </c>
+      <c r="B531" t="str">
+        <v>4:00</v>
+      </c>
+      <c r="C531" t="str">
+        <v>Anikdote &amp; Absent - Heavens Gate</v>
+      </c>
+      <c r="D531" t="str">
+        <v>15K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>531</v>
+      </c>
+      <c r="B532" t="str">
+        <v>2:47</v>
+      </c>
+      <c r="C532" t="str">
+        <v>Fareoh - Underwater</v>
+      </c>
+      <c r="D532" t="str">
+        <v>15K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v>532</v>
+      </c>
+      <c r="B533" t="str">
+        <v>3:17</v>
+      </c>
+      <c r="C533" t="str">
+        <v>Amadeus - Fiesta</v>
+      </c>
+      <c r="D533" t="str">
+        <v>21K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>533</v>
+      </c>
+      <c r="B534" t="str">
+        <v>3:36</v>
+      </c>
+      <c r="C534" t="str">
+        <v>Kisma - Finger Tips</v>
+      </c>
+      <c r="D534" t="str">
+        <v>14K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>534</v>
+      </c>
+      <c r="B535" t="str">
+        <v>2:56</v>
+      </c>
+      <c r="C535" t="str">
+        <v>Debris &amp; Dazers - Double D</v>
+      </c>
+      <c r="D535" t="str">
+        <v>14K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>535</v>
+      </c>
+      <c r="B536" t="str">
+        <v>3:41</v>
+      </c>
+      <c r="C536" t="str">
+        <v>David Bulla - Crossroads</v>
+      </c>
+      <c r="D536" t="str">
+        <v>14K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>536</v>
+      </c>
+      <c r="B537" t="str">
+        <v>3:18</v>
+      </c>
+      <c r="C537" t="str">
+        <v>John Kenza (Kadenza) - Wicked</v>
+      </c>
+      <c r="D537" t="str">
+        <v>13K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>537</v>
+      </c>
+      <c r="B538" t="str">
+        <v>3:33</v>
+      </c>
+      <c r="C538" t="str">
+        <v>Tobu - Higher</v>
+      </c>
+      <c r="D538" t="str">
+        <v>13K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>538</v>
+      </c>
+      <c r="B539" t="str">
+        <v>4:03</v>
+      </c>
+      <c r="C539" t="str">
+        <v>Electro Light - Symbolism pt.II</v>
+      </c>
+      <c r="D539" t="str">
+        <v>12K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>539</v>
+      </c>
+      <c r="B540" t="str">
+        <v>4:11</v>
+      </c>
+      <c r="C540" t="str">
+        <v>Elektronomia - Vitality</v>
+      </c>
+      <c r="D540" t="str">
+        <v>9.6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v>540</v>
+      </c>
+      <c r="B541" t="str">
+        <v>3:13</v>
+      </c>
+      <c r="C541" t="str">
+        <v>Lost Sky - Fearless pt.II (feat. Chris Linton)</v>
+      </c>
+      <c r="D541" t="str">
+        <v>10K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>541</v>
+      </c>
+      <c r="B542" t="str">
+        <v>2:41</v>
+      </c>
+      <c r="C542" t="str">
+        <v>Kraken - Light</v>
+      </c>
+      <c r="D542" t="str">
+        <v>9K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>542</v>
+      </c>
+      <c r="B543" t="str">
+        <v>3:23</v>
+      </c>
+      <c r="C543" t="str">
+        <v>Kraken - Aurora</v>
+      </c>
+      <c r="D543" t="str">
+        <v>9.1K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v>543</v>
+      </c>
+      <c r="B544" t="str">
+        <v>2:57</v>
+      </c>
+      <c r="C544" t="str">
+        <v>Raven &amp; Kreyn - Bubble</v>
+      </c>
+      <c r="D544" t="str">
+        <v>9.6K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>544</v>
+      </c>
+      <c r="B545" t="str">
+        <v>2:41</v>
+      </c>
+      <c r="C545" t="str">
+        <v>CODE - Get The Party</v>
+      </c>
+      <c r="D545" t="str">
+        <v>8.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v>545</v>
+      </c>
+      <c r="B546" t="str">
+        <v>3:01</v>
+      </c>
+      <c r="C546" t="str">
+        <v>Robin Hustin x Tobi Morrow - Light It Up</v>
+      </c>
+      <c r="D546" t="str">
+        <v>10K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v>546</v>
+      </c>
+      <c r="B547" t="str">
+        <v>3:18</v>
+      </c>
+      <c r="C547" t="str">
+        <v>BURNOUT - Take It Easy (feat. Mia Vaile)</v>
+      </c>
+      <c r="D547" t="str">
+        <v>8.3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v>547</v>
+      </c>
+      <c r="B548" t="str">
+        <v>2:34</v>
+      </c>
+      <c r="C548" t="str">
+        <v>Skylike - Collide</v>
+      </c>
+      <c r="D548" t="str">
+        <v>7.7K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v>548</v>
+      </c>
+      <c r="B549" t="str">
+        <v>3:29</v>
+      </c>
+      <c r="C549" t="str">
+        <v>TheFatRat - Oblivion</v>
+      </c>
+      <c r="D549" t="str">
+        <v>8.2K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v>549</v>
+      </c>
+      <c r="B550" t="str">
+        <v>2:53</v>
+      </c>
+      <c r="C550" t="str">
+        <v>Jim Yosef - Capricorn</v>
+      </c>
+      <c r="D550" t="str">
+        <v>8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v>550</v>
+      </c>
+      <c r="B551" t="str">
+        <v>3:37</v>
+      </c>
+      <c r="C551" t="str">
+        <v>Kisma - We Are</v>
+      </c>
+      <c r="D551" t="str">
+        <v>7.3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v>551</v>
+      </c>
+      <c r="B552" t="str">
+        <v>4:39</v>
+      </c>
+      <c r="C552" t="str">
+        <v>Razihel - Last Weapon</v>
+      </c>
+      <c r="D552" t="str">
+        <v>7.5K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v>552</v>
+      </c>
+      <c r="B553" t="str">
+        <v>2:34</v>
+      </c>
+      <c r="C553" t="str">
+        <v>Domastic - Elephant</v>
+      </c>
+      <c r="D553" t="str">
+        <v>7.3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v>553</v>
+      </c>
+      <c r="B554" t="str">
+        <v>4:23</v>
+      </c>
+      <c r="C554" t="str">
+        <v>TheFatRat - Fly Away (JJD Remix)</v>
+      </c>
+      <c r="D554" t="str">
+        <v>7.9K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="str">
+        <v>554</v>
+      </c>
+      <c r="B555" t="str">
+        <v>59:28</v>
+      </c>
+      <c r="C555" t="str">
+        <v>Best of Tobu | Tobu Mix</v>
+      </c>
+      <c r="D555" t="str">
+        <v>7.5K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="str">
+        <v>555</v>
+      </c>
+      <c r="B556" t="str">
+        <v>4:03</v>
+      </c>
+      <c r="C556" t="str">
+        <v>Chime - Phototropic</v>
+      </c>
+      <c r="D556" t="str">
+        <v>7.2K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
+        <v>556</v>
+      </c>
+      <c r="B557" t="str">
+        <v>2:54</v>
+      </c>
+      <c r="C557" t="str">
+        <v>Dirty Palm - Freak Show</v>
+      </c>
+      <c r="D557" t="str">
+        <v>7K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="str">
+        <v>557</v>
+      </c>
+      <c r="B558" t="str">
+        <v>3:02</v>
+      </c>
+      <c r="C558" t="str">
+        <v>Daft Punk - Veridis Quo (Y&amp;V Remix)</v>
+      </c>
+      <c r="D558" t="str">
+        <v>7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="str">
+        <v>558</v>
+      </c>
+      <c r="B559" t="str">
+        <v>3:10</v>
+      </c>
+      <c r="C559" t="str">
+        <v>Elektronomia - Fire</v>
+      </c>
+      <c r="D559" t="str">
+        <v>7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="str">
+        <v>559</v>
+      </c>
+      <c r="B560" t="str">
+        <v>3:00</v>
+      </c>
+      <c r="C560" t="str">
+        <v>Itro &amp; Tobu - Fantasy</v>
+      </c>
+      <c r="D560" t="str">
+        <v>6.9K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="str">
+        <v>560</v>
+      </c>
+      <c r="B561" t="str">
+        <v>4:52</v>
+      </c>
+      <c r="C561" t="str">
+        <v>Cartoon - On &amp; On (Electro-Light Remix)</v>
+      </c>
+      <c r="D561" t="str">
+        <v>6.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="str">
+        <v>561</v>
+      </c>
+      <c r="B562" t="str">
+        <v>4:06</v>
+      </c>
+      <c r="C562" t="str">
+        <v>The Fat Rat - MayDay (feat. Laura Brehm)</v>
+      </c>
+      <c r="D562" t="str">
+        <v>6.8K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="str">
+        <v>562</v>
+      </c>
+      <c r="B563" t="str">
+        <v>3:22</v>
+      </c>
+      <c r="C563" t="str">
+        <v>LFZ - Popsicle (Netapy Remix)</v>
+      </c>
+      <c r="D563" t="str">
+        <v>6.9K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="str">
+        <v>563</v>
+      </c>
+      <c r="B564" t="str">
+        <v>3:20</v>
+      </c>
+      <c r="C564" t="str">
+        <v>Halcyon - Runaway (Culture Code Remix)</v>
+      </c>
+      <c r="D564" t="str">
+        <v>5.9K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="str">
+        <v>564</v>
+      </c>
+      <c r="B565" t="str">
+        <v>3:30</v>
+      </c>
+      <c r="C565" t="str">
+        <v>Jacob Tillberg - Ghosts</v>
+      </c>
+      <c r="D565" t="str">
+        <v>6.5K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="str">
+        <v>565</v>
+      </c>
+      <c r="B566" t="str">
+        <v>5:04</v>
+      </c>
+      <c r="C566" t="str">
+        <v>Lost Sky - Forever</v>
+      </c>
+      <c r="D566" t="str">
+        <v>6.7K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="str">
+        <v>566</v>
+      </c>
+      <c r="B567" t="str">
+        <v>3:19</v>
+      </c>
+      <c r="C567" t="str">
+        <v>Mountkid - No Lullaby</v>
+      </c>
+      <c r="D567" t="str">
+        <v>6.2K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="str">
+        <v>567</v>
+      </c>
+      <c r="B568" t="str">
+        <v>4:16</v>
+      </c>
+      <c r="C568" t="str">
+        <v>Elektronomia - Summer Song 2017</v>
+      </c>
+      <c r="D568" t="str">
+        <v>6.2K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="str">
+        <v>568</v>
+      </c>
+      <c r="B569" t="str">
+        <v>3:05</v>
+      </c>
+      <c r="C569" t="str">
+        <v>John Kenza - Wonderbolt</v>
+      </c>
+      <c r="D569" t="str">
+        <v>6.1K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="str">
+        <v>569</v>
+      </c>
+      <c r="B570" t="str">
+        <v>3:21</v>
+      </c>
+      <c r="C570" t="str">
+        <v>Modern Revolt - WAVY</v>
+      </c>
+      <c r="D570" t="str">
+        <v>6.6K views • 3 years ago</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="str">
+        <v>570</v>
+      </c>
+      <c r="B571" t="str">
+        <v>3:15</v>
+      </c>
+      <c r="C571" t="str">
+        <v>NIVIRO - The Floor Is Lava</v>
+      </c>
+      <c r="D571" t="str">
+        <v>6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="str">
+        <v>571</v>
+      </c>
+      <c r="B572" t="str">
+        <v>2:55</v>
+      </c>
+      <c r="C572" t="str">
+        <v>RetroVision &amp; Domastic - SICC</v>
+      </c>
+      <c r="D572" t="str">
+        <v>6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="str">
+        <v>572</v>
+      </c>
+      <c r="B573" t="str">
+        <v>3:46</v>
+      </c>
+      <c r="C573" t="str">
+        <v>Andromedik - Let Me In</v>
+      </c>
+      <c r="D573" t="str">
+        <v>5.9K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="str">
+        <v>573</v>
+      </c>
+      <c r="B574" t="str">
+        <v>2:51</v>
+      </c>
+      <c r="C574" t="str">
+        <v>Axol - Mars</v>
+      </c>
+      <c r="D574" t="str">
+        <v>5.9K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="str">
+        <v>574</v>
+      </c>
+      <c r="B575" t="str">
+        <v>3:15</v>
+      </c>
+      <c r="C575" t="str">
+        <v>JJD - Velocity</v>
+      </c>
+      <c r="D575" t="str">
+        <v>6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="str">
+        <v>575</v>
+      </c>
+      <c r="B576" t="str">
+        <v>3:44</v>
+      </c>
+      <c r="C576" t="str">
+        <v>Unknown Brain - Why Do I</v>
+      </c>
+      <c r="D576" t="str">
+        <v>5.9K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="str">
+        <v>576</v>
+      </c>
+      <c r="B577" t="str">
+        <v>3:10</v>
+      </c>
+      <c r="C577" t="str">
+        <v>Tobu &amp; Wholm - Motion</v>
+      </c>
+      <c r="D577" t="str">
+        <v>5.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="str">
+        <v>577</v>
+      </c>
+      <c r="B578" t="str">
+        <v>3:11</v>
+      </c>
+      <c r="C578" t="str">
+        <v>JJD - Ocean</v>
+      </c>
+      <c r="D578" t="str">
+        <v>6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="str">
+        <v>578</v>
+      </c>
+      <c r="B579" t="str">
+        <v>3:22</v>
+      </c>
+      <c r="C579" t="str">
+        <v>Code - Were Invincible</v>
+      </c>
+      <c r="D579" t="str">
+        <v>5.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="str">
+        <v>579</v>
+      </c>
+      <c r="B580" t="str">
+        <v>3:15</v>
+      </c>
+      <c r="C580" t="str">
+        <v>TULE - Fearless</v>
+      </c>
+      <c r="D580" t="str">
+        <v>5.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="str">
+        <v>580</v>
+      </c>
+      <c r="B581" t="str">
+        <v>2:50</v>
+      </c>
+      <c r="C581" t="str">
+        <v>Jensation - Delicious</v>
+      </c>
+      <c r="D581" t="str">
+        <v>5.6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="str">
+        <v>581</v>
+      </c>
+      <c r="B582" t="str">
+        <v>3:20</v>
+      </c>
+      <c r="C582" t="str">
+        <v>3rd Prototype &amp; Emdi - House</v>
+      </c>
+      <c r="D582" t="str">
+        <v>5.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="str">
+        <v>582</v>
+      </c>
+      <c r="B583" t="str">
+        <v>2:58</v>
+      </c>
+      <c r="C583" t="str">
+        <v>2 Scoops - Doughnuts</v>
+      </c>
+      <c r="D583" t="str">
+        <v>5.6K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="str">
+        <v>583</v>
+      </c>
+      <c r="B584" t="str">
+        <v>3:15</v>
+      </c>
+      <c r="C584" t="str">
+        <v>Lemon Fight - Stronger</v>
+      </c>
+      <c r="D584" t="str">
+        <v>5.5K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="str">
+        <v>584</v>
+      </c>
+      <c r="B585" t="str">
+        <v>3:53</v>
+      </c>
+      <c r="C585" t="str">
+        <v>IZECOLD - Swiggity</v>
+      </c>
+      <c r="D585" t="str">
+        <v>5.5K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="str">
+        <v>585</v>
+      </c>
+      <c r="B586" t="str">
+        <v>3:10</v>
+      </c>
+      <c r="C586" t="str">
+        <v>Jim Yosef - Infinite</v>
+      </c>
+      <c r="D586" t="str">
+        <v>5.3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="str">
+        <v>586</v>
+      </c>
+      <c r="B587" t="str">
+        <v>2:55</v>
+      </c>
+      <c r="C587" t="str">
+        <v>NIVIRO - Memes</v>
+      </c>
+      <c r="D587" t="str">
+        <v>5.3K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="str">
+        <v>587</v>
+      </c>
+      <c r="B588" t="str">
+        <v>3:46</v>
+      </c>
+      <c r="C588" t="str">
+        <v>Phantom Sage - Spirit</v>
+      </c>
+      <c r="D588" t="str">
+        <v>5.3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="str">
+        <v>588</v>
+      </c>
+      <c r="B589" t="str">
+        <v>3:10</v>
+      </c>
+      <c r="C589" t="str">
+        <v>Electro-Light - Flashback</v>
+      </c>
+      <c r="D589" t="str">
+        <v>5.2K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="str">
+        <v>589</v>
+      </c>
+      <c r="B590" t="str">
+        <v>3:43</v>
+      </c>
+      <c r="C590" t="str">
+        <v>LFZ - Mysteria</v>
+      </c>
+      <c r="D590" t="str">
+        <v>5.1K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="str">
+        <v>590</v>
+      </c>
+      <c r="B591" t="str">
+        <v>3:07</v>
+      </c>
+      <c r="C591" t="str">
+        <v>Syndec - Storm</v>
+      </c>
+      <c r="D591" t="str">
+        <v>5.4K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="str">
+        <v>591</v>
+      </c>
+      <c r="B592" t="str">
+        <v>4:11</v>
+      </c>
+      <c r="C592" t="str">
+        <v>Warriyo - Battle Cry</v>
+      </c>
+      <c r="D592" t="str">
+        <v>5K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="str">
+        <v>592</v>
+      </c>
+      <c r="B593" t="str">
+        <v>2:47</v>
+      </c>
+      <c r="C593" t="str">
+        <v>Rob Gasser - Happy</v>
+      </c>
+      <c r="D593" t="str">
+        <v>4.9K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="str">
+        <v>593</v>
+      </c>
+      <c r="B594" t="str">
+        <v>3:20</v>
+      </c>
+      <c r="C594" t="str">
+        <v>Tobu - Calling (Steerner Remix)</v>
+      </c>
+      <c r="D594" t="str">
+        <v>5.1K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="str">
+        <v>594</v>
+      </c>
+      <c r="B595" t="str">
+        <v>3:27</v>
+      </c>
+      <c r="C595" t="str">
+        <v>Rogers &amp; Dean - No Doubt (Rival &amp; Cadmium Remix)</v>
+      </c>
+      <c r="D595" t="str">
+        <v>4.9K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="str">
+        <v>595</v>
+      </c>
+      <c r="B596" t="str">
+        <v>3:42</v>
+      </c>
+      <c r="C596" t="str">
+        <v>Elektronomia - Summer Song 2018</v>
+      </c>
+      <c r="D596" t="str">
+        <v>5.3K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="str">
+        <v>596</v>
+      </c>
+      <c r="B597" t="str">
+        <v>2:48</v>
+      </c>
+      <c r="C597" t="str">
+        <v>Subfer - Stars</v>
+      </c>
+      <c r="D597" t="str">
+        <v>5.2K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="str">
+        <v>597</v>
+      </c>
+      <c r="B598" t="str">
+        <v>3:25</v>
+      </c>
+      <c r="C598" t="str">
+        <v>Clarx - Zig Zag</v>
+      </c>
+      <c r="D598" t="str">
+        <v>5.1K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="str">
+        <v>598</v>
+      </c>
+      <c r="B599" t="str">
+        <v>2:56</v>
+      </c>
+      <c r="C599" t="str">
+        <v>Unknown Brain - Kuyenda</v>
+      </c>
+      <c r="D599" t="str">
+        <v>4.9K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="str">
+        <v>599</v>
+      </c>
+      <c r="B600" t="str">
+        <v>4:23</v>
+      </c>
+      <c r="C600" t="str">
+        <v>Aero Chord - Incomplete VIP (feat. DDARK &amp; Anuka)</v>
+      </c>
+      <c r="D600" t="str">
+        <v>4.9K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="str">
+        <v>600</v>
+      </c>
+      <c r="B601" t="str">
+        <v>3:00</v>
+      </c>
+      <c r="C601" t="str">
+        <v>EWN - Feels</v>
+      </c>
+      <c r="D601" t="str">
+        <v>4.9K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="str">
+        <v>601</v>
+      </c>
+      <c r="B602" t="str">
+        <v>3:22</v>
+      </c>
+      <c r="C602" t="str">
+        <v>Jim Yosef &amp; Starlyte - Draconis</v>
+      </c>
+      <c r="D602" t="str">
+        <v>4.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="str">
+        <v>602</v>
+      </c>
+      <c r="B603" t="str">
+        <v>3:00</v>
+      </c>
+      <c r="C603" t="str">
+        <v>Modern Revolt - BURY</v>
+      </c>
+      <c r="D603" t="str">
+        <v>4.8K views • 3 years ago</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="str">
+        <v>603</v>
+      </c>
+      <c r="B604" t="str">
+        <v>3:32</v>
+      </c>
+      <c r="C604" t="str">
+        <v>Elektronomia - Sparks</v>
+      </c>
+      <c r="D604" t="str">
+        <v>4.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="str">
+        <v>604</v>
+      </c>
+      <c r="B605" t="str">
+        <v>4:24</v>
+      </c>
+      <c r="C605" t="str">
+        <v>Floatinurboat - Crown</v>
+      </c>
+      <c r="D605" t="str">
+        <v>4.6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="str">
+        <v>605</v>
+      </c>
+      <c r="B606" t="str">
+        <v>3:39</v>
+      </c>
+      <c r="C606" t="str">
+        <v>Krewella - Come And Get It (Razihel Remix)</v>
+      </c>
+      <c r="D606" t="str">
+        <v>4.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="str">
+        <v>606</v>
+      </c>
+      <c r="B607" t="str">
+        <v>3:10</v>
+      </c>
+      <c r="C607" t="str">
+        <v>Jim Yosef - Throwback</v>
+      </c>
+      <c r="D607" t="str">
+        <v>5K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="str">
+        <v>607</v>
+      </c>
+      <c r="B608" t="str">
+        <v>2:59</v>
+      </c>
+      <c r="C608" t="str">
+        <v>Egzod - Wake Up</v>
+      </c>
+      <c r="D608" t="str">
+        <v>4.4K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="str">
+        <v>608</v>
+      </c>
+      <c r="B609" t="str">
+        <v>3:56</v>
+      </c>
+      <c r="C609" t="str">
+        <v>Different Heaven &amp; Omar Varela - Incredicool (LFZ Remix)</v>
+      </c>
+      <c r="D609" t="str">
+        <v>5.4K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="str">
+        <v>609</v>
+      </c>
+      <c r="B610" t="str">
+        <v>3:19</v>
+      </c>
+      <c r="C610" t="str">
+        <v>Sekai - Running</v>
+      </c>
+      <c r="D610" t="str">
+        <v>4.4K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="str">
+        <v>610</v>
+      </c>
+      <c r="B611" t="str">
+        <v>3:36</v>
+      </c>
+      <c r="C611" t="str">
+        <v>Uplink &amp; Jason Gewalt - Legends</v>
+      </c>
+      <c r="D611" t="str">
+        <v>4.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="str">
+        <v>611</v>
+      </c>
+      <c r="B612" t="str">
+        <v>4:00</v>
+      </c>
+      <c r="C612" t="str">
+        <v>Soar - Ephemeral</v>
+      </c>
+      <c r="D612" t="str">
+        <v>4.6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="str">
+        <v>612</v>
+      </c>
+      <c r="B613" t="str">
+        <v>3:45</v>
+      </c>
+      <c r="C613" t="str">
+        <v>LOW SELF - Running Wild (feat. Krue)</v>
+      </c>
+      <c r="D613" t="str">
+        <v>4.4K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="str">
+        <v>613</v>
+      </c>
+      <c r="B614" t="str">
+        <v>3:43</v>
+      </c>
+      <c r="C614" t="str">
+        <v>Elektronomia - Spirit</v>
+      </c>
+      <c r="D614" t="str">
+        <v>4.4K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="str">
+        <v>614</v>
+      </c>
+      <c r="B615" t="str">
+        <v>4:11</v>
+      </c>
+      <c r="C615" t="str">
+        <v>LFZ - Shogura VIP</v>
+      </c>
+      <c r="D615" t="str">
+        <v>4.6K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="str">
+        <v>615</v>
+      </c>
+      <c r="B616" t="str">
+        <v>3:35</v>
+      </c>
+      <c r="C616" t="str">
+        <v>Electro-Light - Fading Away (feat Ke'nekt)</v>
+      </c>
+      <c r="D616" t="str">
+        <v>4.3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="str">
+        <v>616</v>
+      </c>
+      <c r="B617" t="str">
+        <v>3:21</v>
+      </c>
+      <c r="C617" t="str">
+        <v>Diviners - Falling</v>
+      </c>
+      <c r="D617" t="str">
+        <v>4.4K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="str">
+        <v>617</v>
+      </c>
+      <c r="B618" t="str">
+        <v>3:19</v>
+      </c>
+      <c r="C618" t="str">
+        <v>Rogers &amp; Dean X Rival &amp; Cadmium - I Gave It All (feat. Harley Bird)</v>
+      </c>
+      <c r="D618" t="str">
+        <v>4.2K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="str">
+        <v>618</v>
+      </c>
+      <c r="B619" t="str">
+        <v>2:44</v>
+      </c>
+      <c r="C619" t="str">
+        <v>RetroVision - Cake</v>
+      </c>
+      <c r="D619" t="str">
+        <v>4.2K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="str">
+        <v>619</v>
+      </c>
+      <c r="B620" t="str">
+        <v>3:38</v>
+      </c>
+      <c r="C620" t="str">
+        <v>Michael White - No Fears</v>
+      </c>
+      <c r="D620" t="str">
+        <v>4.2K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="str">
+        <v>620</v>
+      </c>
+      <c r="B621" t="str">
+        <v>2:41</v>
+      </c>
+      <c r="C621" t="str">
+        <v>Raven &amp; Kreyn - Call Me Again</v>
+      </c>
+      <c r="D621" t="str">
+        <v>4.2K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="str">
+        <v>621</v>
+      </c>
+      <c r="B622" t="str">
+        <v>4:04</v>
+      </c>
+      <c r="C622" t="str">
+        <v>JJD - Odyssey</v>
+      </c>
+      <c r="D622" t="str">
+        <v>4.2K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="str">
+        <v>622</v>
+      </c>
+      <c r="B623" t="str">
+        <v>3:04</v>
+      </c>
+      <c r="C623" t="str">
+        <v>Tobu - Such Fun</v>
+      </c>
+      <c r="D623" t="str">
+        <v>4.2K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="str">
+        <v>623</v>
+      </c>
+      <c r="B624" t="str">
+        <v>3:01</v>
+      </c>
+      <c r="C624" t="str">
+        <v>Skylike - Takeoff</v>
+      </c>
+      <c r="D624" t="str">
+        <v>4.2K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="str">
+        <v>624</v>
+      </c>
+      <c r="B625" t="str">
+        <v>2:59</v>
+      </c>
+      <c r="C625" t="str">
+        <v>Uplink x Alex Skrindo - You &amp; Me (feat. Axol)</v>
+      </c>
+      <c r="D625" t="str">
+        <v>4.1K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="str">
+        <v>625</v>
+      </c>
+      <c r="B626" t="str">
+        <v>4:09</v>
+      </c>
+      <c r="C626" t="str">
+        <v>Elektronomia - The Other Side</v>
+      </c>
+      <c r="D626" t="str">
+        <v>4.1K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="str">
+        <v>626</v>
+      </c>
+      <c r="B627" t="str">
+        <v>2:49</v>
+      </c>
+      <c r="C627" t="str">
+        <v>Ship Wrek - Waiting (feat. The High Rollers)</v>
+      </c>
+      <c r="D627" t="str">
+        <v>4K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="str">
+        <v>627</v>
+      </c>
+      <c r="B628" t="str">
+        <v>3:53</v>
+      </c>
+      <c r="C628" t="str">
+        <v>Elektronomia - Butterfly</v>
+      </c>
+      <c r="D628" t="str">
+        <v>4K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="str">
+        <v>628</v>
+      </c>
+      <c r="B629" t="str">
+        <v>2:56</v>
+      </c>
+      <c r="C629" t="str">
+        <v>Defqwop - Say The Word</v>
+      </c>
+      <c r="D629" t="str">
+        <v>3.9K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="str">
+        <v>629</v>
+      </c>
+      <c r="B630" t="str">
+        <v>2:44</v>
+      </c>
+      <c r="C630" t="str">
+        <v>RetroVision - Over Again (feat. Micah Martin)</v>
+      </c>
+      <c r="D630" t="str">
+        <v>4.1K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="str">
+        <v>630</v>
+      </c>
+      <c r="B631" t="str">
+        <v>3:50</v>
+      </c>
+      <c r="C631" t="str">
+        <v>Rameses B - Story</v>
+      </c>
+      <c r="D631" t="str">
+        <v>4K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="str">
+        <v>631</v>
+      </c>
+      <c r="B632" t="str">
+        <v>3:06</v>
+      </c>
+      <c r="C632" t="str">
+        <v>Unknown Brain &amp; Anna Yvette - Twisted Reality</v>
+      </c>
+      <c r="D632" t="str">
+        <v>3.9K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="str">
+        <v>632</v>
+      </c>
+      <c r="B633" t="str">
+        <v>3:55</v>
+      </c>
+      <c r="C633" t="str">
+        <v>Paul Flint - Watch The World Burn (feat. Chris Linton)</v>
+      </c>
+      <c r="D633" t="str">
+        <v>4K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="str">
+        <v>633</v>
+      </c>
+      <c r="B634" t="str">
+        <v>3:40</v>
+      </c>
+      <c r="C634" t="str">
+        <v>Debris &amp; Our Psych - Omerta</v>
+      </c>
+      <c r="D634" t="str">
+        <v>3.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="str">
+        <v>634</v>
+      </c>
+      <c r="B635" t="str">
+        <v>4:36</v>
+      </c>
+      <c r="C635" t="str">
+        <v>Tobu - Cloud 9</v>
+      </c>
+      <c r="D635" t="str">
+        <v>3.9K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="str">
+        <v>635</v>
+      </c>
+      <c r="B636" t="str">
+        <v>4:45</v>
+      </c>
+      <c r="C636" t="str">
+        <v>JJD - Fortune</v>
+      </c>
+      <c r="D636" t="str">
+        <v>3.8K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="str">
+        <v>636</v>
+      </c>
+      <c r="B637" t="str">
+        <v>4:30</v>
+      </c>
+      <c r="C637" t="str">
+        <v>K-391 - Dream Of Something Sweet</v>
+      </c>
+      <c r="D637" t="str">
+        <v>4K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="str">
+        <v>637</v>
+      </c>
+      <c r="B638" t="str">
+        <v>3:11</v>
+      </c>
+      <c r="C638" t="str">
+        <v>Alex Skrindo &amp; Jim Yosef - Ruby</v>
+      </c>
+      <c r="D638" t="str">
+        <v>4K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="str">
+        <v>638</v>
+      </c>
+      <c r="B639" t="str">
+        <v>2:35</v>
+      </c>
+      <c r="C639" t="str">
+        <v>Raven &amp; Kreyn - Biscuit</v>
+      </c>
+      <c r="D639" t="str">
+        <v>3.8K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="str">
+        <v>639</v>
+      </c>
+      <c r="B640" t="str">
+        <v>2:42</v>
+      </c>
+      <c r="C640" t="str">
+        <v>Our Psych - Purge</v>
+      </c>
+      <c r="D640" t="str">
+        <v>3.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="str">
+        <v>640</v>
+      </c>
+      <c r="B641" t="str">
+        <v>3:04</v>
+      </c>
+      <c r="C641" t="str">
+        <v>NIVIRO - I Just Want To</v>
+      </c>
+      <c r="D641" t="str">
+        <v>3.9K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="str">
+        <v>641</v>
+      </c>
+      <c r="B642" t="str">
+        <v>3:10</v>
+      </c>
+      <c r="C642" t="str">
+        <v>Zain Conor &amp; Drivvin - What I Never Had (feat. Michael Zhonga)</v>
+      </c>
+      <c r="D642" t="str">
+        <v>4K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="str">
+        <v>642</v>
+      </c>
+      <c r="B643" t="str">
+        <v>3:19</v>
+      </c>
+      <c r="C643" t="str">
+        <v>Speo - Never Over</v>
+      </c>
+      <c r="D643" t="str">
+        <v>3.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="str">
+        <v>643</v>
+      </c>
+      <c r="B644" t="str">
+        <v>3:11</v>
+      </c>
+      <c r="C644" t="str">
+        <v>Skylike - Flashback</v>
+      </c>
+      <c r="D644" t="str">
+        <v>3.9K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="str">
+        <v>644</v>
+      </c>
+      <c r="B645" t="str">
+        <v>3:27</v>
+      </c>
+      <c r="C645" t="str">
+        <v>Axol &amp; Holly - I Need You (feat. TheTechThieves)</v>
+      </c>
+      <c r="D645" t="str">
+        <v>3.9K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="str">
+        <v>645</v>
+      </c>
+      <c r="B646" t="str">
+        <v>3:18</v>
+      </c>
+      <c r="C646" t="str">
+        <v>Kozah - Ha Ha</v>
+      </c>
+      <c r="D646" t="str">
+        <v>3.7K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="str">
+        <v>646</v>
+      </c>
+      <c r="B647" t="str">
+        <v>3:32</v>
+      </c>
+      <c r="C647" t="str">
+        <v>Sinner's Heist - Street Light People (feat. Harley Bird)</v>
+      </c>
+      <c r="D647" t="str">
+        <v>3.7K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="str">
+        <v>647</v>
+      </c>
+      <c r="B648" t="str">
+        <v>3:24</v>
+      </c>
+      <c r="C648" t="str">
+        <v>Unknown Brain - Perfect</v>
+      </c>
+      <c r="D648" t="str">
+        <v>3.8K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="str">
+        <v>648</v>
+      </c>
+      <c r="B649" t="str">
+        <v>3:48</v>
+      </c>
+      <c r="C649" t="str">
+        <v>David Bulla - Surrender (feat. Michael Zhonga)</v>
+      </c>
+      <c r="D649" t="str">
+        <v>4K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="str">
+        <v>649</v>
+      </c>
+      <c r="B650" t="str">
+        <v>3:13</v>
+      </c>
+      <c r="C650" t="str">
+        <v>Tobu - Nostalgia (Phantom Sage Remix)</v>
+      </c>
+      <c r="D650" t="str">
+        <v>3.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="str">
+        <v>650</v>
+      </c>
+      <c r="B651" t="str">
+        <v>4:19</v>
+      </c>
+      <c r="C651" t="str">
+        <v>LFZ - Popsicle</v>
+      </c>
+      <c r="D651" t="str">
+        <v>3.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="str">
+        <v>651</v>
+      </c>
+      <c r="B652" t="str">
+        <v>3:27</v>
+      </c>
+      <c r="C652" t="str">
+        <v>Mechanism - Green Lights</v>
+      </c>
+      <c r="D652" t="str">
+        <v>3.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="str">
+        <v>652</v>
+      </c>
+      <c r="B653" t="str">
+        <v>4:01</v>
+      </c>
+      <c r="C653" t="str">
+        <v>Elektronomia &amp; JJD - Free</v>
+      </c>
+      <c r="D653" t="str">
+        <v>3.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="str">
+        <v>653</v>
+      </c>
+      <c r="B654" t="str">
+        <v>2:28</v>
+      </c>
+      <c r="C654" t="str">
+        <v>Tobu - Need U</v>
+      </c>
+      <c r="D654" t="str">
+        <v>3.8K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="str">
+        <v>654</v>
+      </c>
+      <c r="B655" t="str">
+        <v>3:26</v>
+      </c>
+      <c r="C655" t="str">
+        <v>Egzod - Universe (feat. Tanjent)</v>
+      </c>
+      <c r="D655" t="str">
+        <v>3.6K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="str">
+        <v>655</v>
+      </c>
+      <c r="B656" t="str">
+        <v>3:53</v>
+      </c>
+      <c r="C656" t="str">
+        <v>T &amp; Sugah - Demons</v>
+      </c>
+      <c r="D656" t="str">
+        <v>3.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="str">
+        <v>656</v>
+      </c>
+      <c r="B657" t="str">
+        <v>4:14</v>
+      </c>
+      <c r="C657" t="str">
+        <v>Electro-Light - Ignite</v>
+      </c>
+      <c r="D657" t="str">
+        <v>3.7K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="str">
+        <v>657</v>
+      </c>
+      <c r="B658" t="str">
+        <v>4:27</v>
+      </c>
+      <c r="C658" t="str">
+        <v>Diamond Eyes - Everything</v>
+      </c>
+      <c r="D658" t="str">
+        <v>3.9K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="str">
+        <v>658</v>
+      </c>
+      <c r="B659" t="str">
+        <v>4:11</v>
+      </c>
+      <c r="C659" t="str">
+        <v>JJD - Sugar High</v>
+      </c>
+      <c r="D659" t="str">
+        <v>3.2K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="str">
+        <v>659</v>
+      </c>
+      <c r="B660" t="str">
+        <v>3:40</v>
+      </c>
+      <c r="C660" t="str">
+        <v>Futuristik - Feeling This Way</v>
+      </c>
+      <c r="D660" t="str">
+        <v>3.6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="str">
+        <v>660</v>
+      </c>
+      <c r="B661" t="str">
+        <v>4:27</v>
+      </c>
+      <c r="C661" t="str">
+        <v>NCT - In The Sun Again (feat. Laura Brehm)</v>
+      </c>
+      <c r="D661" t="str">
+        <v>3.6K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="str">
+        <v>661</v>
+      </c>
+      <c r="B662" t="str">
+        <v>3:28</v>
+      </c>
+      <c r="C662" t="str">
+        <v>Ghost n Ghost - Lazy Sunday</v>
+      </c>
+      <c r="D662" t="str">
+        <v>3.7K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="str">
+        <v>662</v>
+      </c>
+      <c r="B663" t="str">
+        <v>3:39</v>
+      </c>
+      <c r="C663" t="str">
+        <v>Tobu - Calling</v>
+      </c>
+      <c r="D663" t="str">
+        <v>3.6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="str">
+        <v>663</v>
+      </c>
+      <c r="B664" t="str">
+        <v>3:30</v>
+      </c>
+      <c r="C664" t="str">
+        <v>Rameses B - We Are One</v>
+      </c>
+      <c r="D664" t="str">
+        <v>3.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="str">
+        <v>664</v>
+      </c>
+      <c r="B665" t="str">
+        <v>4:27</v>
+      </c>
+      <c r="C665" t="str">
+        <v>ProleteR - April Showers</v>
+      </c>
+      <c r="D665" t="str">
+        <v>3.9K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="str">
+        <v>665</v>
+      </c>
+      <c r="B666" t="str">
+        <v>3:37</v>
+      </c>
+      <c r="C666" t="str">
+        <v>Razihel - Rip Your Face Off</v>
+      </c>
+      <c r="D666" t="str">
+        <v>3.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="str">
+        <v>666</v>
+      </c>
+      <c r="B667" t="str">
+        <v>3:40</v>
+      </c>
+      <c r="C667" t="str">
+        <v>Halcyon - December</v>
+      </c>
+      <c r="D667" t="str">
+        <v>3.6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="str">
+        <v>667</v>
+      </c>
+      <c r="B668" t="str">
+        <v>4:00</v>
+      </c>
+      <c r="C668" t="str">
+        <v>Justin Caruso - Fortnite Trap Remix</v>
+      </c>
+      <c r="D668" t="str">
+        <v>3.5K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="str">
+        <v>668</v>
+      </c>
+      <c r="B669" t="str">
+        <v>3:15</v>
+      </c>
+      <c r="C669" t="str">
+        <v>Kozah - Heaven</v>
+      </c>
+      <c r="D669" t="str">
+        <v>3.6K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="str">
+        <v>669</v>
+      </c>
+      <c r="B670" t="str">
+        <v>3:07</v>
+      </c>
+      <c r="C670" t="str">
+        <v>Kasger - Cover It Up</v>
+      </c>
+      <c r="D670" t="str">
+        <v>3.6K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="str">
+        <v>670</v>
+      </c>
+      <c r="B671" t="str">
+        <v>3:01</v>
+      </c>
+      <c r="C671" t="str">
+        <v>Unknown Brain - Inspiration</v>
+      </c>
+      <c r="D671" t="str">
+        <v>3.6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="str">
+        <v>671</v>
+      </c>
+      <c r="B672" t="str">
+        <v>4:00</v>
+      </c>
+      <c r="C672" t="str">
+        <v>Different Heaven - Alone</v>
+      </c>
+      <c r="D672" t="str">
+        <v>3.5K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="str">
+        <v>672</v>
+      </c>
+      <c r="B673" t="str">
+        <v>3:26</v>
+      </c>
+      <c r="C673" t="str">
+        <v>Tobu - Calling (Diviners Remix)</v>
+      </c>
+      <c r="D673" t="str">
+        <v>3.5K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="str">
+        <v>673</v>
+      </c>
+      <c r="B674" t="str">
+        <v>2:58</v>
+      </c>
+      <c r="C674" t="str">
+        <v>Ahrix - Unite</v>
+      </c>
+      <c r="D674" t="str">
+        <v>3.6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="str">
+        <v>674</v>
+      </c>
+      <c r="B675" t="str">
+        <v>3:52</v>
+      </c>
+      <c r="C675" t="str">
+        <v>Last Heroes - Dimensions</v>
+      </c>
+      <c r="D675" t="str">
+        <v>3.5K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="str">
+        <v>675</v>
+      </c>
+      <c r="B676" t="str">
+        <v>3:39</v>
+      </c>
+      <c r="C676" t="str">
+        <v>Defqwop - Awakening</v>
+      </c>
+      <c r="D676" t="str">
+        <v>3.7K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="str">
+        <v>676</v>
+      </c>
+      <c r="B677" t="str">
+        <v>3:51</v>
+      </c>
+      <c r="C677" t="str">
+        <v>Dirty Palm - Oblivion</v>
+      </c>
+      <c r="D677" t="str">
+        <v>3.5K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="str">
+        <v>677</v>
+      </c>
+      <c r="B678" t="str">
+        <v>3:34</v>
+      </c>
+      <c r="C678" t="str">
+        <v>Distrion - Icaro</v>
+      </c>
+      <c r="D678" t="str">
+        <v>3.5K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="str">
+        <v>678</v>
+      </c>
+      <c r="B679" t="str">
+        <v>3:02</v>
+      </c>
+      <c r="C679" t="str">
+        <v>NIVIRO - So Funky</v>
+      </c>
+      <c r="D679" t="str">
+        <v>3.5K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="str">
+        <v>679</v>
+      </c>
+      <c r="B680" t="str">
+        <v>3:50</v>
+      </c>
+      <c r="C680" t="str">
+        <v>Noah Cyrus - Again (Culture Code Remix)</v>
+      </c>
+      <c r="D680" t="str">
+        <v>3.6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="str">
+        <v>680</v>
+      </c>
+      <c r="B681" t="str">
+        <v>3:28</v>
+      </c>
+      <c r="C681" t="str">
+        <v>JJD - Discover</v>
+      </c>
+      <c r="D681" t="str">
+        <v>3.5K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="str">
+        <v>681</v>
+      </c>
+      <c r="B682" t="str">
+        <v>3:18</v>
+      </c>
+      <c r="C682" t="str">
+        <v>Fox Stevenson - Something</v>
+      </c>
+      <c r="D682" t="str">
+        <v>3.6K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="str">
+        <v>682</v>
+      </c>
+      <c r="B683" t="str">
+        <v>3:13</v>
+      </c>
+      <c r="C683" t="str">
+        <v>Speo - Still Young</v>
+      </c>
+      <c r="D683" t="str">
+        <v>3.6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="str">
+        <v>683</v>
+      </c>
+      <c r="B684" t="str">
+        <v>3:17</v>
+      </c>
+      <c r="C684" t="str">
+        <v>Cadmium - Deep</v>
+      </c>
+      <c r="D684" t="str">
+        <v>3.4K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="str">
+        <v>684</v>
+      </c>
+      <c r="B685" t="str">
+        <v>3:21</v>
+      </c>
+      <c r="C685" t="str">
+        <v>Michael White &amp; Deflo - About To Go Down</v>
+      </c>
+      <c r="D685" t="str">
+        <v>3.3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="str">
+        <v>685</v>
+      </c>
+      <c r="B686" t="str">
+        <v>2:47</v>
+      </c>
+      <c r="C686" t="str">
+        <v>Metrix - My Heart</v>
+      </c>
+      <c r="D686" t="str">
+        <v>3.3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="str">
+        <v>686</v>
+      </c>
+      <c r="B687" t="str">
+        <v>3:11</v>
+      </c>
+      <c r="C687" t="str">
+        <v>A Day To Remember - Have Faith In Me (Two Owls Remix)</v>
+      </c>
+      <c r="D687" t="str">
+        <v>3.4K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="str">
+        <v>687</v>
+      </c>
+      <c r="B688" t="str">
+        <v>3:13</v>
+      </c>
+      <c r="C688" t="str">
+        <v>Morfil - Forever More</v>
+      </c>
+      <c r="D688" t="str">
+        <v>3.3K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="str">
+        <v>688</v>
+      </c>
+      <c r="B689" t="str">
+        <v>3:40</v>
+      </c>
+      <c r="C689" t="str">
+        <v>Lennart Schroot - Arcade</v>
+      </c>
+      <c r="D689" t="str">
+        <v>3.2K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="str">
+        <v>689</v>
+      </c>
+      <c r="B690" t="str">
+        <v>3:47</v>
+      </c>
+      <c r="C690" t="str">
+        <v>Osrin &amp; Adam Tell - By Surprise</v>
+      </c>
+      <c r="D690" t="str">
+        <v>3.2K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="str">
+        <v>690</v>
+      </c>
+      <c r="B691" t="str">
+        <v>3:40</v>
+      </c>
+      <c r="C691" t="str">
+        <v>Stahl! - Moonlight</v>
+      </c>
+      <c r="D691" t="str">
+        <v>3.3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="str">
+        <v>691</v>
+      </c>
+      <c r="B692" t="str">
+        <v>3:02</v>
+      </c>
+      <c r="C692" t="str">
+        <v>Tobu - Rollercoaster</v>
+      </c>
+      <c r="D692" t="str">
+        <v>3.2K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="str">
+        <v>692</v>
+      </c>
+      <c r="B693" t="str">
+        <v>3:44</v>
+      </c>
+      <c r="C693" t="str">
+        <v>Marvin Divine - Pretty Lights</v>
+      </c>
+      <c r="D693" t="str">
+        <v>3.2K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="str">
+        <v>693</v>
+      </c>
+      <c r="B694" t="str">
+        <v>4:29</v>
+      </c>
+      <c r="C694" t="str">
+        <v>Desmeon - My Sunshine</v>
+      </c>
+      <c r="D694" t="str">
+        <v>3.2K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="str">
+        <v>694</v>
+      </c>
+      <c r="B695" t="str">
+        <v>5:34</v>
+      </c>
+      <c r="C695" t="str">
+        <v>DEAF KEV - Planes</v>
+      </c>
+      <c r="D695" t="str">
+        <v>3.2K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="str">
+        <v>695</v>
+      </c>
+      <c r="B696" t="str">
+        <v>3:21</v>
+      </c>
+      <c r="C696" t="str">
+        <v>Last Heroes &amp; Nurko - Promise Me</v>
+      </c>
+      <c r="D696" t="str">
+        <v>3.2K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="str">
+        <v>696</v>
+      </c>
+      <c r="B697" t="str">
+        <v>3:34</v>
+      </c>
+      <c r="C697" t="str">
+        <v>Tobu - Calling (Kovan Remix)</v>
+      </c>
+      <c r="D697" t="str">
+        <v>3.2K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="str">
+        <v>697</v>
+      </c>
+      <c r="B698" t="str">
+        <v>3:36</v>
+      </c>
+      <c r="C698" t="str">
+        <v>JJD - Devotion</v>
+      </c>
+      <c r="D698" t="str">
+        <v>3.2K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="str">
+        <v>698</v>
+      </c>
+      <c r="B699" t="str">
+        <v>3:32</v>
+      </c>
+      <c r="C699" t="str">
+        <v>Culture Code - Crazy Love</v>
+      </c>
+      <c r="D699" t="str">
+        <v>3.1K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="str">
+        <v>699</v>
+      </c>
+      <c r="B700" t="str">
+        <v>3:23</v>
+      </c>
+      <c r="C700" t="str">
+        <v>Valence - Infinite</v>
+      </c>
+      <c r="D700" t="str">
+        <v>3.4K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="str">
+        <v>700</v>
+      </c>
+      <c r="B701" t="str">
+        <v>3:03</v>
+      </c>
+      <c r="C701" t="str">
+        <v>Itro - Promises</v>
+      </c>
+      <c r="D701" t="str">
+        <v>3.2K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="str">
+        <v>701</v>
+      </c>
+      <c r="B702" t="str">
+        <v>3:48</v>
+      </c>
+      <c r="C702" t="str">
+        <v>JPB &amp; Mendum - Feelings</v>
+      </c>
+      <c r="D702" t="str">
+        <v>3.2K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="str">
+        <v>702</v>
+      </c>
+      <c r="B703" t="str">
+        <v>4:05</v>
+      </c>
+      <c r="C703" t="str">
+        <v>Floatinurboat - Holding On (feat. Chris Linton)</v>
+      </c>
+      <c r="D703" t="str">
+        <v>3.2K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="str">
+        <v>703</v>
+      </c>
+      <c r="B704" t="str">
+        <v>3:44</v>
+      </c>
+      <c r="C704" t="str">
+        <v>Floatinurboat - Missing U</v>
+      </c>
+      <c r="D704" t="str">
+        <v>3.1K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="str">
+        <v>704</v>
+      </c>
+      <c r="B705" t="str">
+        <v>3:17</v>
+      </c>
+      <c r="C705" t="str">
+        <v>Halcyon - Run Away</v>
+      </c>
+      <c r="D705" t="str">
+        <v>3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="str">
+        <v>705</v>
+      </c>
+      <c r="B706" t="str">
+        <v>4:14</v>
+      </c>
+      <c r="C706" t="str">
+        <v>Aero Chord - Incomplete (feat. Anuka)</v>
+      </c>
+      <c r="D706" t="str">
+        <v>3.1K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="str">
+        <v>706</v>
+      </c>
+      <c r="B707" t="str">
+        <v>4:18</v>
+      </c>
+      <c r="C707" t="str">
+        <v>Sub.Sound - Flying High</v>
+      </c>
+      <c r="D707" t="str">
+        <v>2.6K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="str">
+        <v>707</v>
+      </c>
+      <c r="B708" t="str">
+        <v>3:44</v>
+      </c>
+      <c r="C708" t="str">
+        <v>Jim Yosef - Courage (feat. Anna Yvette)</v>
+      </c>
+      <c r="D708" t="str">
+        <v>3.2K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="str">
+        <v>708</v>
+      </c>
+      <c r="B709" t="str">
+        <v>4:26</v>
+      </c>
+      <c r="C709" t="str">
+        <v>JJD &amp; Alex Skrindo - Elation</v>
+      </c>
+      <c r="D709" t="str">
+        <v>3.5K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="str">
+        <v>709</v>
+      </c>
+      <c r="B710" t="str">
+        <v>3:47</v>
+      </c>
+      <c r="C710" t="str">
+        <v>Elektronomia - Close To You</v>
+      </c>
+      <c r="D710" t="str">
+        <v>2.7K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="str">
+        <v>710</v>
+      </c>
+      <c r="B711" t="str">
+        <v>3:03</v>
+      </c>
+      <c r="C711" t="str">
+        <v>Space CadeX - Fire</v>
+      </c>
+      <c r="D711" t="str">
+        <v>3.1K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="str">
+        <v>711</v>
+      </c>
+      <c r="B712" t="str">
+        <v>3:02</v>
+      </c>
+      <c r="C712" t="str">
+        <v>Rival &amp; Arc North - End Of Time (feat. Laura Brehm)</v>
+      </c>
+      <c r="D712" t="str">
+        <v>3.1K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="str">
+        <v>712</v>
+      </c>
+      <c r="B713" t="str">
+        <v>4:36</v>
+      </c>
+      <c r="C713" t="str">
+        <v>Aero Chord &amp; Anuka - Incomplete (Muzzy Remix)</v>
+      </c>
+      <c r="D713" t="str">
+        <v>3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="str">
+        <v>713</v>
+      </c>
+      <c r="B714" t="str">
+        <v>3:08</v>
+      </c>
+      <c r="C714" t="str">
+        <v>Zentra &amp; Iain Mannix - Falling Free (Electro Light remix)</v>
+      </c>
+      <c r="D714" t="str">
+        <v>3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="str">
+        <v>714</v>
+      </c>
+      <c r="B715" t="str">
+        <v>2:52</v>
+      </c>
+      <c r="C715" t="str">
+        <v>Lost Boy &amp; Slashtaq - Elysium</v>
+      </c>
+      <c r="D715" t="str">
+        <v>3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="str">
+        <v>715</v>
+      </c>
+      <c r="B716" t="str">
+        <v>3:39</v>
+      </c>
+      <c r="C716" t="str">
+        <v>Jason Gewalt - Surrender (ft. Stevyn)</v>
+      </c>
+      <c r="D716" t="str">
+        <v>3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="str">
+        <v>716</v>
+      </c>
+      <c r="B717" t="str">
+        <v>3:09</v>
+      </c>
+      <c r="C717" t="str">
+        <v>Fadent - Unity</v>
+      </c>
+      <c r="D717" t="str">
+        <v>3.1K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="str">
+        <v>717</v>
+      </c>
+      <c r="B718" t="str">
+        <v>3:34</v>
+      </c>
+      <c r="C718" t="str">
+        <v>Tobu - Amplified</v>
+      </c>
+      <c r="D718" t="str">
+        <v>3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="str">
+        <v>718</v>
+      </c>
+      <c r="B719" t="str">
+        <v>3:04</v>
+      </c>
+      <c r="C719" t="str">
+        <v>Space Cadex - I'm Free (feat. Micah Martin)</v>
+      </c>
+      <c r="D719" t="str">
+        <v>2.6K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="str">
+        <v>719</v>
+      </c>
+      <c r="B720" t="str">
+        <v>3:23</v>
+      </c>
+      <c r="C720" t="str">
+        <v>T &amp; Sugah x NCT - Say To Me</v>
+      </c>
+      <c r="D720" t="str">
+        <v>2.6K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="str">
+        <v>720</v>
+      </c>
+      <c r="B721" t="str">
+        <v>3:58</v>
+      </c>
+      <c r="C721" t="str">
+        <v>TWERL - Reverse (feat. Anuka) [HYLO Remix]</v>
+      </c>
+      <c r="D721" t="str">
+        <v>3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="str">
+        <v>721</v>
+      </c>
+      <c r="B722" t="str">
+        <v>3:12</v>
+      </c>
+      <c r="C722" t="str">
+        <v>TheFatRat - Fly Away (feat. Anjulie)</v>
+      </c>
+      <c r="D722" t="str">
+        <v>3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="str">
+        <v>722</v>
+      </c>
+      <c r="B723" t="str">
+        <v>3:00</v>
+      </c>
+      <c r="C723" t="str">
+        <v>Kontinuum - Lost (feat. Savoi) [Sunroof Remix]</v>
+      </c>
+      <c r="D723" t="str">
+        <v>3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="str">
+        <v>723</v>
+      </c>
+      <c r="B724" t="str">
+        <v>2:57</v>
+      </c>
+      <c r="C724" t="str">
+        <v>Vexento - Verve</v>
+      </c>
+      <c r="D724" t="str">
+        <v>3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="str">
+        <v>724</v>
+      </c>
+      <c r="B725" t="str">
+        <v>3:34</v>
+      </c>
+      <c r="C725" t="str">
+        <v>Leo The Kind - Storm</v>
+      </c>
+      <c r="D725" t="str">
+        <v>2.8K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="str">
+        <v>725</v>
+      </c>
+      <c r="B726" t="str">
+        <v>4:18</v>
+      </c>
+      <c r="C726" t="str">
+        <v>Ak9 &amp; Suchan - Try Me</v>
+      </c>
+      <c r="D726" t="str">
+        <v>2.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="str">
+        <v>726</v>
+      </c>
+      <c r="B727" t="str">
+        <v>3:30</v>
+      </c>
+      <c r="C727" t="str">
+        <v>Arc North &amp; Polarbearz - Together Now (ft. Camilla Neideman)</v>
+      </c>
+      <c r="D727" t="str">
+        <v>2.9K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="str">
+        <v>727</v>
+      </c>
+      <c r="B728" t="str">
+        <v>3:17</v>
+      </c>
+      <c r="C728" t="str">
+        <v>Ripter - Limitless</v>
+      </c>
+      <c r="D728" t="str">
+        <v>3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="str">
+        <v>728</v>
+      </c>
+      <c r="B729" t="str">
+        <v>3:40</v>
+      </c>
+      <c r="C729" t="str">
+        <v>Rusko - Everyday (Hylo Remix)</v>
+      </c>
+      <c r="D729" t="str">
+        <v>2.9K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="str">
+        <v>729</v>
+      </c>
+      <c r="B730" t="str">
+        <v>4:48</v>
+      </c>
+      <c r="C730" t="str">
+        <v>Electro-Light &amp; Kovan - Skyline</v>
+      </c>
+      <c r="D730" t="str">
+        <v>3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="str">
+        <v>730</v>
+      </c>
+      <c r="B731" t="str">
+        <v>4:05</v>
+      </c>
+      <c r="C731" t="str">
+        <v>Unknown Brain &amp; Varsity Dropouts - Wassup</v>
+      </c>
+      <c r="D731" t="str">
+        <v>2.9K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="str">
+        <v>731</v>
+      </c>
+      <c r="B732" t="str">
+        <v>4:37</v>
+      </c>
+      <c r="C732" t="str">
+        <v>Rameses B - Twilight Zone (feat. Laura Brehm)</v>
+      </c>
+      <c r="D732" t="str">
+        <v>2.8K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="str">
+        <v>732</v>
+      </c>
+      <c r="B733" t="str">
+        <v>3:21</v>
+      </c>
+      <c r="C733" t="str">
+        <v>Prismo - Hold On</v>
+      </c>
+      <c r="D733" t="str">
+        <v>2.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="str">
+        <v>733</v>
+      </c>
+      <c r="B734" t="str">
+        <v>3:45</v>
+      </c>
+      <c r="C734" t="str">
+        <v>NCT - Move On</v>
+      </c>
+      <c r="D734" t="str">
+        <v>2.9K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="str">
+        <v>734</v>
+      </c>
+      <c r="B735" t="str">
+        <v>4:31</v>
+      </c>
+      <c r="C735" t="str">
+        <v>Phantom Sage &amp; Spencer Maro - I'll Never Let You Go</v>
+      </c>
+      <c r="D735" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="str">
+        <v>735</v>
+      </c>
+      <c r="B736" t="str">
+        <v>3:52</v>
+      </c>
+      <c r="C736" t="str">
+        <v>Jordan Schor - Next To You</v>
+      </c>
+      <c r="D736" t="str">
+        <v>2.7K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="str">
+        <v>736</v>
+      </c>
+      <c r="B737" t="str">
+        <v>3:01</v>
+      </c>
+      <c r="C737" t="str">
+        <v>Jordan Schor - Twisted (feat. Chris Linton)</v>
+      </c>
+      <c r="D737" t="str">
+        <v>2.6K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="str">
+        <v>737</v>
+      </c>
+      <c r="B738" t="str">
+        <v>4:11</v>
+      </c>
+      <c r="C738" t="str">
+        <v>Halvorsen - She Got Me Like (DEAF KEV Remix)</v>
+      </c>
+      <c r="D738" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="str">
+        <v>738</v>
+      </c>
+      <c r="B739" t="str">
+        <v>3:36</v>
+      </c>
+      <c r="C739" t="str">
+        <v>T &amp; Sugah - Walk Her Way</v>
+      </c>
+      <c r="D739" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="str">
+        <v>739</v>
+      </c>
+      <c r="B740" t="str">
+        <v>3:10</v>
+      </c>
+      <c r="C740" t="str">
+        <v>Valence - Moonlight</v>
+      </c>
+      <c r="D740" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="str">
+        <v>740</v>
+      </c>
+      <c r="B741" t="str">
+        <v>4:28</v>
+      </c>
+      <c r="C741" t="str">
+        <v>T &amp; Sugah - Sleepless (feat. MVE)</v>
+      </c>
+      <c r="D741" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="str">
+        <v>741</v>
+      </c>
+      <c r="B742" t="str">
+        <v>4:23</v>
+      </c>
+      <c r="C742" t="str">
+        <v>Elektronomia - Crossed Paths</v>
+      </c>
+      <c r="D742" t="str">
+        <v>2.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="str">
+        <v>742</v>
+      </c>
+      <c r="B743" t="str">
+        <v>2:54</v>
+      </c>
+      <c r="C743" t="str">
+        <v>Emdi &amp; Coorby - Lone Wolf</v>
+      </c>
+      <c r="D743" t="str">
+        <v>2.7K views • 4 years ago</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="str">
+        <v>743</v>
+      </c>
+      <c r="B744" t="str">
+        <v>2:46</v>
+      </c>
+      <c r="C744" t="str">
+        <v>T Mass - Bow and Arrow</v>
+      </c>
+      <c r="D744" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="str">
+        <v>744</v>
+      </c>
+      <c r="B745" t="str">
+        <v>3:31</v>
+      </c>
+      <c r="C745" t="str">
+        <v>T-Mass &amp; Jaxxtone - Gave To Me</v>
+      </c>
+      <c r="D745" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="str">
+        <v>745</v>
+      </c>
+      <c r="B746" t="str">
+        <v>3:16</v>
+      </c>
+      <c r="C746" t="str">
+        <v>Speo - Lost</v>
+      </c>
+      <c r="D746" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="str">
+        <v>746</v>
+      </c>
+      <c r="B747" t="str">
+        <v>4:04</v>
+      </c>
+      <c r="C747" t="str">
+        <v>JJD - Mind</v>
+      </c>
+      <c r="D747" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="str">
+        <v>747</v>
+      </c>
+      <c r="B748" t="str">
+        <v>2:38</v>
+      </c>
+      <c r="C748" t="str">
+        <v>Omar Varela - Connected</v>
+      </c>
+      <c r="D748" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="str">
+        <v>748</v>
+      </c>
+      <c r="B749" t="str">
+        <v>4:11</v>
+      </c>
+      <c r="C749" t="str">
+        <v>Sub.Sound - Fantastic</v>
+      </c>
+      <c r="D749" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="str">
+        <v>749</v>
+      </c>
+      <c r="B750" t="str">
+        <v>4:08</v>
+      </c>
+      <c r="C750" t="str">
+        <v>Voicians - Riddle</v>
+      </c>
+      <c r="D750" t="str">
+        <v>2.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="str">
+        <v>750</v>
+      </c>
+      <c r="B751" t="str">
+        <v>2:52</v>
+      </c>
+      <c r="C751" t="str">
+        <v>Blume - Valhall</v>
+      </c>
+      <c r="D751" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="str">
+        <v>751</v>
+      </c>
+      <c r="B752" t="str">
+        <v>2:39</v>
+      </c>
+      <c r="C752" t="str">
+        <v>Raven &amp; Kreyn - Get This Party</v>
+      </c>
+      <c r="D752" t="str">
+        <v>2.2K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="str">
+        <v>752</v>
+      </c>
+      <c r="B753" t="str">
+        <v>4:44</v>
+      </c>
+      <c r="C753" t="str">
+        <v>JJD &amp; Marin Hoxha - Lift</v>
+      </c>
+      <c r="D753" t="str">
+        <v>2.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="str">
+        <v>753</v>
+      </c>
+      <c r="B754" t="str">
+        <v>3:32</v>
+      </c>
+      <c r="C754" t="str">
+        <v>Cartoon - Here</v>
+      </c>
+      <c r="D754" t="str">
+        <v>2.6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="str">
+        <v>754</v>
+      </c>
+      <c r="B755" t="str">
+        <v>3:32</v>
+      </c>
+      <c r="C755" t="str">
+        <v>Holly x Future Golden - Almost Lost</v>
+      </c>
+      <c r="D755" t="str">
+        <v>2.6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="str">
+        <v>755</v>
+      </c>
+      <c r="B756" t="str">
+        <v>3:40</v>
+      </c>
+      <c r="C756" t="str">
+        <v>Sekai - Venting VIP (feat. Belicious)</v>
+      </c>
+      <c r="D756" t="str">
+        <v>2.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="str">
+        <v>756</v>
+      </c>
+      <c r="B757" t="str">
+        <v>3:32</v>
+      </c>
+      <c r="C757" t="str">
+        <v>WinWel - In My Mind (feat. Tom de Visser &amp; Freya Staer)</v>
+      </c>
+      <c r="D757" t="str">
+        <v>2.6K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="str">
+        <v>757</v>
+      </c>
+      <c r="B758" t="str">
+        <v>4:01</v>
+      </c>
+      <c r="C758" t="str">
+        <v>Jameston Thieves x TWO OWLS - Last Laugh</v>
+      </c>
+      <c r="D758" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="str">
+        <v>758</v>
+      </c>
+      <c r="B759" t="str">
+        <v>3:39</v>
+      </c>
+      <c r="C759" t="str">
+        <v>it's different &amp; Taptone - Peace Of Mind (ft. Josh Rubin)</v>
+      </c>
+      <c r="D759" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="str">
+        <v>759</v>
+      </c>
+      <c r="B760" t="str">
+        <v>3:50</v>
+      </c>
+      <c r="C760" t="str">
+        <v>Axol - Keep</v>
+      </c>
+      <c r="D760" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="str">
+        <v>760</v>
+      </c>
+      <c r="B761" t="str">
+        <v>2:46</v>
+      </c>
+      <c r="C761" t="str">
+        <v>Fransis Derelle &amp; TWO OWLS &amp; - Over (feat. Parker Polhill)</v>
+      </c>
+      <c r="D761" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="str">
+        <v>761</v>
+      </c>
+      <c r="B762" t="str">
+        <v>3:21</v>
+      </c>
+      <c r="C762" t="str">
+        <v>Prismo - Serenity</v>
+      </c>
+      <c r="D762" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="str">
+        <v>762</v>
+      </c>
+      <c r="B763" t="str">
+        <v>3:36</v>
+      </c>
+      <c r="C763" t="str">
+        <v>Arc North - Meant To Be (feat. Krista Marina) [RetroVision Remix]</v>
+      </c>
+      <c r="D763" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="str">
+        <v>763</v>
+      </c>
+      <c r="B764" t="str">
+        <v>3:59</v>
+      </c>
+      <c r="C764" t="str">
+        <v>GLowBrain X The Katherines - Escape</v>
+      </c>
+      <c r="D764" t="str">
+        <v>2.3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="str">
+        <v>764</v>
+      </c>
+      <c r="B765" t="str">
+        <v>3:26</v>
+      </c>
+      <c r="C765" t="str">
+        <v>Beau Collins &amp; Vin - Love Me</v>
+      </c>
+      <c r="D765" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="str">
+        <v>765</v>
+      </c>
+      <c r="B766" t="str">
+        <v>3:24</v>
+      </c>
+      <c r="C766" t="str">
+        <v>Two Owls - Lets Get It</v>
+      </c>
+      <c r="D766" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="str">
+        <v>766</v>
+      </c>
+      <c r="B767" t="str">
+        <v>5:02</v>
+      </c>
+      <c r="C767" t="str">
+        <v>Phantom Sage - Kingdom (feat. Miss Lina)</v>
+      </c>
+      <c r="D767" t="str">
+        <v>2.3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="str">
+        <v>767</v>
+      </c>
+      <c r="B768" t="str">
+        <v>3:33</v>
+      </c>
+      <c r="C768" t="str">
+        <v>Distrion &amp; Alex Skrindo - Lightning</v>
+      </c>
+      <c r="D768" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="str">
+        <v>768</v>
+      </c>
+      <c r="B769" t="str">
+        <v>4:23</v>
+      </c>
+      <c r="C769" t="str">
+        <v>JJD &amp; Zyphen - Wonderland</v>
+      </c>
+      <c r="D769" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="str">
+        <v>769</v>
+      </c>
+      <c r="B770" t="str">
+        <v>4:57</v>
+      </c>
+      <c r="C770" t="str">
+        <v>Phantom Sage - Our Lives Past (feat. Emily Stiles)</v>
+      </c>
+      <c r="D770" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="str">
+        <v>770</v>
+      </c>
+      <c r="B771" t="str">
+        <v>4:11</v>
+      </c>
+      <c r="C771" t="str">
+        <v>T &amp; Sugah - They Say</v>
+      </c>
+      <c r="D771" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="str">
+        <v>771</v>
+      </c>
+      <c r="B772" t="str">
+        <v>3:31</v>
+      </c>
+      <c r="C772" t="str">
+        <v>Geoxor - Slot Machine</v>
+      </c>
+      <c r="D772" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="str">
+        <v>772</v>
+      </c>
+      <c r="B773" t="str">
+        <v>4:03</v>
+      </c>
+      <c r="C773" t="str">
+        <v>Uplink &amp; Jay Eskar - Ashes</v>
+      </c>
+      <c r="D773" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="str">
+        <v>773</v>
+      </c>
+      <c r="B774" t="str">
+        <v>3:02</v>
+      </c>
+      <c r="C774" t="str">
+        <v>Raider - Your Face (feat. EMIA)</v>
+      </c>
+      <c r="D774" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="str">
+        <v>774</v>
+      </c>
+      <c r="B775" t="str">
+        <v>3:05</v>
+      </c>
+      <c r="C775" t="str">
+        <v>Jim Yosef &amp; Syzz - Promises (feat. Michael Zhonga)</v>
+      </c>
+      <c r="D775" t="str">
+        <v>2.7K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="str">
+        <v>775</v>
+      </c>
+      <c r="B776" t="str">
+        <v>4:34</v>
+      </c>
+      <c r="C776" t="str">
+        <v>K-391 - Atlantic Happiness</v>
+      </c>
+      <c r="D776" t="str">
+        <v>2.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="str">
+        <v>776</v>
+      </c>
+      <c r="B777" t="str">
+        <v>3:01</v>
+      </c>
+      <c r="C777" t="str">
+        <v>Damaui - Sparks</v>
+      </c>
+      <c r="D777" t="str">
+        <v>2.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="str">
+        <v>777</v>
+      </c>
+      <c r="B778" t="str">
+        <v>4:16</v>
+      </c>
+      <c r="C778" t="str">
+        <v>Submatik &amp; Phil - One (feat. Holly Drummond) [Virtual Riot Remix]</v>
+      </c>
+      <c r="D778" t="str">
+        <v>2.8K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="str">
+        <v>778</v>
+      </c>
+      <c r="B779" t="str">
+        <v>3:35</v>
+      </c>
+      <c r="C779" t="str">
+        <v>Lumious - Inverted</v>
+      </c>
+      <c r="D779" t="str">
+        <v>3K views • 5 years ago</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D303"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D780"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/playlist.xlsx
+++ b/playlist.xlsx
@@ -441,7 +441,7 @@
         <v>Janji - Heroes Tonight (feat. Johnning) [NCS Release]</v>
       </c>
       <c r="D3" t="str">
-        <v>304M views • 7 years ago</v>
+        <v>305M views • 7 years ago</v>
       </c>
     </row>
     <row r="4">
@@ -2275,7 +2275,7 @@
         <v>Culture Code - Feel Again (feat. Harley Bird) [NCS Release]</v>
       </c>
       <c r="D134" t="str">
-        <v>12M views • 4 years ago</v>
+        <v>12M views • 5 years ago</v>
       </c>
     </row>
     <row r="135">
@@ -6374,7 +6374,7 @@
         <v>Krakn - Aurora [NCS Release]</v>
       </c>
       <c r="D427" t="str">
-        <v>2.5M views • 5 years ago</v>
+        <v>2.6M views • 5 years ago</v>
       </c>
     </row>
     <row r="428">
@@ -7984,7 +7984,7 @@
         <v>Kraken - Light</v>
       </c>
       <c r="D542" t="str">
-        <v>9K views • 5 years ago</v>
+        <v>9.1K views • 5 years ago</v>
       </c>
     </row>
     <row r="543">
@@ -9188,7 +9188,7 @@
         <v>Elektronomia - Butterfly</v>
       </c>
       <c r="D628" t="str">
-        <v>4K views • 4 years ago</v>
+        <v>4.1K views • 4 years ago</v>
       </c>
     </row>
     <row r="629">
@@ -10518,7 +10518,7 @@
         <v>Kontinuum - Lost (feat. Savoi) [Sunroof Remix]</v>
       </c>
       <c r="D723" t="str">
-        <v>3K views • 5 years ago</v>
+        <v>2.9K views • 5 years ago</v>
       </c>
     </row>
     <row r="724">

--- a/playlist.xlsx
+++ b/playlist.xlsx
@@ -7494,7 +7494,7 @@
         <v>Spektrem - Miles Above You</v>
       </c>
       <c r="D507" t="str">
-        <v>788K views • 5 years ago</v>
+        <v>789K views • 5 years ago</v>
       </c>
     </row>
     <row r="508">
